--- a/raw_data/20200818_saline/20200818_Sensor0_Test_76.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_76.xlsx
@@ -1,673 +1,1089 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3D74CD-095E-4757-A029-454864F74A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>67502.905208</v>
+        <v>67502.905207999996</v>
       </c>
       <c r="B2" s="1">
-        <v>18.750807</v>
+        <v>18.750806999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>901.942000</v>
+        <v>901.94200000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-183.418000</v>
+        <v>-183.41800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>67512.946746</v>
+        <v>67512.946746000001</v>
       </c>
       <c r="G2" s="1">
-        <v>18.753596</v>
+        <v>18.753596000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>917.461000</v>
+        <v>917.46100000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-156.489000</v>
+        <v>-156.489</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>67523.398910</v>
+        <v>67523.398910000004</v>
       </c>
       <c r="L2" s="1">
-        <v>18.756500</v>
+        <v>18.756499999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>938.471000</v>
+        <v>938.471</v>
       </c>
       <c r="N2" s="1">
-        <v>-114.326000</v>
+        <v>-114.32599999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>67533.589252</v>
+        <v>67533.589252000005</v>
       </c>
       <c r="Q2" s="1">
-        <v>18.759330</v>
+        <v>18.759329999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>945.244000</v>
+        <v>945.24400000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-100.706000</v>
+        <v>-100.706</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>67544.211606</v>
+        <v>67544.211605999997</v>
       </c>
       <c r="V2" s="1">
-        <v>18.762281</v>
+        <v>18.762281000000002</v>
       </c>
       <c r="W2" s="1">
-        <v>952.165000</v>
+        <v>952.16499999999996</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.380300</v>
+        <v>-88.380300000000005</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>67554.645875</v>
+        <v>67554.645875000002</v>
       </c>
       <c r="AA2" s="1">
         <v>18.765179</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.205000</v>
+        <v>960.20500000000004</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.787700</v>
+        <v>-79.787700000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>67565.205205</v>
+        <v>67565.205205000006</v>
       </c>
       <c r="AF2" s="1">
         <v>18.768113</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.567000</v>
+        <v>965.56700000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.592900</v>
+        <v>-79.5929</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>67575.641033</v>
+        <v>67575.641033000007</v>
       </c>
       <c r="AK2" s="1">
-        <v>18.771011</v>
+        <v>18.771011000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.883000</v>
+        <v>973.88300000000004</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.412800</v>
+        <v>-87.412800000000004</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>67586.216731</v>
+        <v>67586.216730999993</v>
       </c>
       <c r="AP2" s="1">
-        <v>18.773949</v>
+        <v>18.773949000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.235000</v>
+        <v>983.23500000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.197000</v>
+        <v>-102.197</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>67597.139132</v>
+        <v>67597.139131999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>18.776983</v>
+        <v>18.776983000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.682000</v>
+        <v>994.68200000000002</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.567000</v>
+        <v>-123.56699999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>67608.278791</v>
+        <v>67608.278791000004</v>
       </c>
       <c r="AZ2" s="1">
-        <v>18.780077</v>
+        <v>18.780076999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.175000</v>
+        <v>-142.17500000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>67619.263680</v>
+        <v>67619.263680000004</v>
       </c>
       <c r="BE2" s="1">
-        <v>18.783129</v>
+        <v>18.783128999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.720000</v>
+        <v>1049.72</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.315000</v>
+        <v>-226.315</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>67630.277872</v>
+        <v>67630.277872000006</v>
       </c>
       <c r="BJ2" s="1">
-        <v>18.786188</v>
+        <v>18.786187999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1129.330000</v>
+        <v>1129.33</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.840000</v>
+        <v>-360.84</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>67641.749312</v>
@@ -676,1223 +1092,1223 @@
         <v>18.789375</v>
       </c>
       <c r="BP2" s="1">
-        <v>1260.670000</v>
+        <v>1260.67</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-567.582000</v>
+        <v>-567.58199999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>67652.065143</v>
       </c>
       <c r="BT2" s="1">
-        <v>18.792240</v>
+        <v>18.79224</v>
       </c>
       <c r="BU2" s="1">
-        <v>1407.380000</v>
+        <v>1407.38</v>
       </c>
       <c r="BV2" s="1">
-        <v>-787.985000</v>
+        <v>-787.98500000000001</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>67662.458773</v>
+        <v>67662.458773000006</v>
       </c>
       <c r="BY2" s="1">
-        <v>18.795127</v>
+        <v>18.795127000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1567.590000</v>
+        <v>1567.59</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1016.790000</v>
+        <v>-1016.79</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>67673.469966</v>
+        <v>67673.469966000004</v>
       </c>
       <c r="CD2" s="1">
-        <v>18.798186</v>
+        <v>18.798186000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1968.590000</v>
+        <v>1968.59</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1552.740000</v>
+        <v>-1552.74</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>67503.333769</v>
+        <v>67503.333769000004</v>
       </c>
       <c r="B3" s="1">
         <v>18.750926</v>
       </c>
       <c r="C3" s="1">
-        <v>901.865000</v>
+        <v>901.86500000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-183.385000</v>
+        <v>-183.38499999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>67513.367322</v>
+        <v>67513.367322000006</v>
       </c>
       <c r="G3" s="1">
-        <v>18.753713</v>
+        <v>18.753713000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>917.244000</v>
+        <v>917.24400000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-156.620000</v>
+        <v>-156.62</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>67523.509517</v>
+        <v>67523.509516999999</v>
       </c>
       <c r="L3" s="1">
-        <v>18.756530</v>
+        <v>18.756530000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>938.596000</v>
+        <v>938.596</v>
       </c>
       <c r="N3" s="1">
-        <v>-114.352000</v>
+        <v>-114.352</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>67534.012799</v>
+        <v>67534.012799000004</v>
       </c>
       <c r="Q3" s="1">
-        <v>18.759448</v>
+        <v>18.759447999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>945.266000</v>
+        <v>945.26599999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-100.738000</v>
+        <v>-100.738</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>67544.580066</v>
+        <v>67544.580065999995</v>
       </c>
       <c r="V3" s="1">
         <v>18.762383</v>
       </c>
       <c r="W3" s="1">
-        <v>952.232000</v>
+        <v>952.23199999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.319900</v>
+        <v>-88.319900000000004</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>67555.007957</v>
+        <v>67555.007956999994</v>
       </c>
       <c r="AA3" s="1">
-        <v>18.765280</v>
+        <v>18.765280000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.181000</v>
+        <v>960.18100000000004</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.752300</v>
+        <v>-79.752300000000005</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>67565.584184</v>
+        <v>67565.584184000007</v>
       </c>
       <c r="AF3" s="1">
-        <v>18.768218</v>
+        <v>18.768218000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.561000</v>
+        <v>965.56100000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.587100</v>
+        <v>-79.587100000000007</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>67576.375289</v>
+        <v>67576.375289000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>18.771215</v>
+        <v>18.771215000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.868000</v>
+        <v>973.86800000000005</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.409400</v>
+        <v>-87.409400000000005</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>67586.975610</v>
+        <v>67586.975609999994</v>
       </c>
       <c r="AP3" s="1">
-        <v>18.774160</v>
+        <v>18.774159999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.239000</v>
+        <v>983.23900000000003</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.201000</v>
+        <v>-102.20099999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>67597.552795</v>
+        <v>67597.552794999996</v>
       </c>
       <c r="AU3" s="1">
-        <v>18.777098</v>
+        <v>18.777097999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.667000</v>
+        <v>994.66700000000003</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.582000</v>
+        <v>-123.58199999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>67608.680080</v>
+        <v>67608.680080000006</v>
       </c>
       <c r="AZ3" s="1">
         <v>18.780189</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.183000</v>
+        <v>-142.18299999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>67619.629230</v>
+        <v>67619.629230000006</v>
       </c>
       <c r="BE3" s="1">
-        <v>18.783230</v>
+        <v>18.78323</v>
       </c>
       <c r="BF3" s="1">
-        <v>1049.720000</v>
+        <v>1049.72</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.325000</v>
+        <v>-226.32499999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>67631.007487</v>
+        <v>67631.007486999995</v>
       </c>
       <c r="BJ3" s="1">
-        <v>18.786391</v>
+        <v>18.786390999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1129.360000</v>
+        <v>1129.3599999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.769000</v>
+        <v>-360.76900000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>67641.862928</v>
+        <v>67641.862928000002</v>
       </c>
       <c r="BO3" s="1">
         <v>18.789406</v>
       </c>
       <c r="BP3" s="1">
-        <v>1260.680000</v>
+        <v>1260.68</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-567.568000</v>
+        <v>-567.56799999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>67652.213906</v>
+        <v>67652.213906000004</v>
       </c>
       <c r="BT3" s="1">
         <v>18.792282</v>
       </c>
       <c r="BU3" s="1">
-        <v>1407.270000</v>
+        <v>1407.27</v>
       </c>
       <c r="BV3" s="1">
-        <v>-788.112000</v>
+        <v>-788.11199999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>67662.923526</v>
+        <v>67662.923525999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>18.795257</v>
+        <v>18.795256999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1567.720000</v>
+        <v>1567.72</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1016.910000</v>
+        <v>-1016.91</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>67674.036421</v>
+        <v>67674.036420999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>18.798343</v>
+        <v>18.798342999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1970.270000</v>
+        <v>1970.27</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1552.980000</v>
+        <v>-1552.98</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>67503.613496</v>
+        <v>67503.613496000005</v>
       </c>
       <c r="B4" s="1">
-        <v>18.751004</v>
+        <v>18.751003999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>901.903000</v>
+        <v>901.90300000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-183.307000</v>
+        <v>-183.30699999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>67513.677819</v>
+        <v>67513.677819000004</v>
       </c>
       <c r="G4" s="1">
-        <v>18.753799</v>
+        <v>18.753799000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>917.476000</v>
+        <v>917.476</v>
       </c>
       <c r="I4" s="1">
-        <v>-156.471000</v>
+        <v>-156.471</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>67523.846798</v>
+        <v>67523.846797999999</v>
       </c>
       <c r="L4" s="1">
-        <v>18.756624</v>
+        <v>18.756623999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>938.449000</v>
+        <v>938.44899999999996</v>
       </c>
       <c r="N4" s="1">
-        <v>-114.485000</v>
+        <v>-114.485</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>67534.360000</v>
+        <v>67534.36</v>
       </c>
       <c r="Q4" s="1">
-        <v>18.759544</v>
+        <v>18.759544000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>945.284000</v>
+        <v>945.28399999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-100.671000</v>
+        <v>-100.67100000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>67544.924291</v>
+        <v>67544.924291000003</v>
       </c>
       <c r="V4" s="1">
-        <v>18.762479</v>
+        <v>18.762478999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>952.113000</v>
+        <v>952.11300000000006</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.247600</v>
+        <v>-88.247600000000006</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>67555.708338</v>
+        <v>67555.708337999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>18.765475</v>
+        <v>18.765474999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.185000</v>
+        <v>960.18499999999995</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.689300</v>
+        <v>-79.689300000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>67566.271145</v>
+        <v>67566.271145000006</v>
       </c>
       <c r="AF4" s="1">
-        <v>18.768409</v>
+        <v>18.768408999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.576000</v>
+        <v>965.57600000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.584300</v>
+        <v>-79.584299999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>67576.724295</v>
+        <v>67576.724295000007</v>
       </c>
       <c r="AK4" s="1">
-        <v>18.771312</v>
+        <v>18.771312000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.877000</v>
+        <v>973.87699999999995</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.414700</v>
+        <v>-87.414699999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>67587.334218</v>
+        <v>67587.334218000004</v>
       </c>
       <c r="AP4" s="1">
-        <v>18.774260</v>
+        <v>18.774260000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.230000</v>
+        <v>983.23</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.190000</v>
+        <v>-102.19</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>67597.917355</v>
+        <v>67597.917354999998</v>
       </c>
       <c r="AU4" s="1">
         <v>18.777199</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.684000</v>
+        <v>994.68399999999997</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.567000</v>
+        <v>-123.56699999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>67609.344683</v>
+        <v>67609.344683000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>18.780374</v>
+        <v>18.780373999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.170000</v>
+        <v>-142.16999999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>67620.296349</v>
+        <v>67620.296348999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>18.783416</v>
+        <v>18.783415999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.700000</v>
+        <v>1049.7</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.307000</v>
+        <v>-226.30699999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>67631.476206</v>
+        <v>67631.476206000007</v>
       </c>
       <c r="BJ4" s="1">
         <v>18.786521</v>
       </c>
       <c r="BK4" s="1">
-        <v>1129.350000</v>
+        <v>1129.3499999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.826000</v>
+        <v>-360.82600000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>67642.266672</v>
+        <v>67642.266671999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>18.789519</v>
+        <v>18.789518999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1260.680000</v>
+        <v>1260.68</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-567.597000</v>
+        <v>-567.59699999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>67652.626112</v>
+        <v>67652.626111999998</v>
       </c>
       <c r="BT4" s="1">
         <v>18.792396</v>
       </c>
       <c r="BU4" s="1">
-        <v>1407.180000</v>
+        <v>1407.18</v>
       </c>
       <c r="BV4" s="1">
-        <v>-787.996000</v>
+        <v>-787.99599999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>67663.371441</v>
+        <v>67663.371440999996</v>
       </c>
       <c r="BY4" s="1">
-        <v>18.795381</v>
+        <v>18.795380999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1567.660000</v>
+        <v>1567.66</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1016.880000</v>
+        <v>-1016.88</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>67674.551769</v>
+        <v>67674.551768999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>18.798487</v>
+        <v>18.798487000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>1970.630000</v>
+        <v>1970.63</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1551.830000</v>
+        <v>-1551.83</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>67503.956727</v>
+        <v>67503.956726999997</v>
       </c>
       <c r="B5" s="1">
         <v>18.751099</v>
       </c>
       <c r="C5" s="1">
-        <v>901.810000</v>
+        <v>901.81</v>
       </c>
       <c r="D5" s="1">
-        <v>-183.360000</v>
+        <v>-183.36</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>67514.018075</v>
       </c>
       <c r="G5" s="1">
-        <v>18.753894</v>
+        <v>18.753893999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>917.034000</v>
+        <v>917.03399999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-156.611000</v>
+        <v>-156.61099999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>67524.189037</v>
+        <v>67524.189037000004</v>
       </c>
       <c r="L5" s="1">
         <v>18.756719</v>
       </c>
       <c r="M5" s="1">
-        <v>938.297000</v>
+        <v>938.29700000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-114.278000</v>
+        <v>-114.27800000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>67534.710175</v>
       </c>
       <c r="Q5" s="1">
-        <v>18.759642</v>
+        <v>18.759641999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>945.297000</v>
+        <v>945.29700000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-100.727000</v>
+        <v>-100.727</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>67545.613233</v>
+        <v>67545.613232999996</v>
       </c>
       <c r="V5" s="1">
-        <v>18.762670</v>
+        <v>18.76267</v>
       </c>
       <c r="W5" s="1">
-        <v>952.172000</v>
+        <v>952.17200000000003</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.397900</v>
+        <v>-88.397900000000007</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>67556.053058</v>
+        <v>67556.053058000005</v>
       </c>
       <c r="AA5" s="1">
-        <v>18.765570</v>
+        <v>18.76557</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.223000</v>
+        <v>960.22299999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.757000</v>
+        <v>-79.757000000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>67566.616325</v>
+        <v>67566.616324999995</v>
       </c>
       <c r="AF5" s="1">
-        <v>18.768505</v>
+        <v>18.768505000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.578000</v>
+        <v>965.57799999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.568500</v>
+        <v>-79.5685</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>67577.070502</v>
+        <v>67577.070502000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>18.771408</v>
+        <v>18.771408000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.899000</v>
+        <v>973.899</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.388500</v>
+        <v>-87.388499999999993</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>67587.727576</v>
+        <v>67587.727576000005</v>
       </c>
       <c r="AP5" s="1">
         <v>18.774369</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.240000</v>
+        <v>983.24</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.201000</v>
+        <v>-102.20099999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>67598.600347</v>
       </c>
       <c r="AU5" s="1">
-        <v>18.777389</v>
+        <v>18.777388999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.682000</v>
+        <v>994.68200000000002</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.571000</v>
+        <v>-123.571</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>67609.754378</v>
+        <v>67609.754377999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>18.780487</v>
+        <v>18.780487000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.173000</v>
+        <v>-142.173</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>67620.740804</v>
+        <v>67620.740804000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>18.783539</v>
+        <v>18.783539000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.730000</v>
+        <v>1049.73</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.318000</v>
+        <v>-226.31800000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>67631.848689</v>
+        <v>67631.848689000006</v>
       </c>
       <c r="BJ5" s="1">
-        <v>18.786625</v>
+        <v>18.786625000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1129.380000</v>
+        <v>1129.3800000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.776000</v>
+        <v>-360.77600000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>67642.662976</v>
+        <v>67642.662976000007</v>
       </c>
       <c r="BO5" s="1">
-        <v>18.789629</v>
+        <v>18.789629000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1260.700000</v>
+        <v>1260.7</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-567.643000</v>
+        <v>-567.64300000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>67653.053635</v>
+        <v>67653.053635000004</v>
       </c>
       <c r="BT5" s="1">
-        <v>18.792515</v>
+        <v>18.792515000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1407.130000</v>
+        <v>1407.13</v>
       </c>
       <c r="BV5" s="1">
-        <v>-787.957000</v>
+        <v>-787.95699999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>67663.800981</v>
+        <v>67663.800980999993</v>
       </c>
       <c r="BY5" s="1">
-        <v>18.795500</v>
+        <v>18.795500000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1567.590000</v>
+        <v>1567.59</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1016.780000</v>
+        <v>-1016.78</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>67675.070549</v>
+        <v>67675.070548999996</v>
       </c>
       <c r="CD5" s="1">
         <v>18.798631</v>
       </c>
       <c r="CE5" s="1">
-        <v>1969.690000</v>
+        <v>1969.69</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1551.370000</v>
+        <v>-1551.37</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>67504.296487</v>
       </c>
       <c r="B6" s="1">
-        <v>18.751193</v>
+        <v>18.751193000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>902.032000</v>
+        <v>902.03200000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-183.405000</v>
+        <v>-183.405</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>67514.362793</v>
+        <v>67514.362792999993</v>
       </c>
       <c r="G6" s="1">
-        <v>18.753990</v>
+        <v>18.753990000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>916.741000</v>
+        <v>916.74099999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-156.979000</v>
+        <v>-156.97900000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>67524.881948</v>
+        <v>67524.881947999995</v>
       </c>
       <c r="L6" s="1">
         <v>18.756912</v>
       </c>
       <c r="M6" s="1">
-        <v>938.598000</v>
+        <v>938.59799999999996</v>
       </c>
       <c r="N6" s="1">
-        <v>-114.381000</v>
+        <v>-114.381</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>67535.408540</v>
+        <v>67535.408540000004</v>
       </c>
       <c r="Q6" s="1">
         <v>18.759836</v>
       </c>
       <c r="R6" s="1">
-        <v>945.294000</v>
+        <v>945.29399999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>-100.671000</v>
+        <v>-100.67100000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>67545.958448</v>
+        <v>67545.958448000005</v>
       </c>
       <c r="V6" s="1">
-        <v>18.762766</v>
+        <v>18.762765999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>952.276000</v>
+        <v>952.27599999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.271100</v>
+        <v>-88.271100000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>67556.401713</v>
+        <v>67556.401712999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>18.765667</v>
+        <v>18.765667000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.172000</v>
+        <v>960.17200000000003</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.636200</v>
+        <v>-79.636200000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>67566.960548</v>
+        <v>67566.960548000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>18.768600</v>
+        <v>18.768599999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.567000</v>
+        <v>965.56700000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.582100</v>
+        <v>-79.582099999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>67577.728229</v>
       </c>
       <c r="AK6" s="1">
-        <v>18.771591</v>
+        <v>18.771591000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.904000</v>
+        <v>973.904</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.389000</v>
+        <v>-87.388999999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>67588.194777</v>
+        <v>67588.194776999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>18.774499</v>
+        <v>18.774498999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.204000</v>
+        <v>983.20399999999995</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.212000</v>
+        <v>-102.212</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>67599.035338</v>
+        <v>67599.035338000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>18.777510</v>
+        <v>18.777509999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.670000</v>
+        <v>994.67</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.576000</v>
+        <v>-123.57599999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>67610.138780</v>
+        <v>67610.138779999994</v>
       </c>
       <c r="AZ6" s="1">
-        <v>18.780594</v>
+        <v>18.780594000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.172000</v>
+        <v>-142.172</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>67621.101853</v>
       </c>
       <c r="BE6" s="1">
-        <v>18.783639</v>
+        <v>18.783639000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.730000</v>
+        <v>1049.73</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.312000</v>
+        <v>-226.31200000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>67632.226124</v>
+        <v>67632.226123999993</v>
       </c>
       <c r="BJ6" s="1">
-        <v>18.786729</v>
+        <v>18.786729000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1129.410000</v>
+        <v>1129.4100000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.819000</v>
+        <v>-360.81900000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>67643.081604</v>
+        <v>67643.081604000006</v>
       </c>
       <c r="BO6" s="1">
         <v>18.789745</v>
       </c>
       <c r="BP6" s="1">
-        <v>1260.650000</v>
+        <v>1260.6500000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-567.633000</v>
+        <v>-567.63300000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>67653.476257</v>
+        <v>67653.476257000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>18.792632</v>
+        <v>18.792632000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1407.070000</v>
+        <v>1407.07</v>
       </c>
       <c r="BV6" s="1">
-        <v>-787.880000</v>
+        <v>-787.88</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>67664.221060</v>
+        <v>67664.221059999996</v>
       </c>
       <c r="BY6" s="1">
         <v>18.795617</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1567.470000</v>
+        <v>1567.47</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1016.790000</v>
+        <v>-1016.79</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>67675.590851</v>
+        <v>67675.590851000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>18.798775</v>
+        <v>18.798774999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1969.650000</v>
+        <v>1969.65</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1551.180000</v>
+        <v>-1551.18</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>67504.977494</v>
+        <v>67504.977494000006</v>
       </c>
       <c r="B7" s="1">
-        <v>18.751383</v>
+        <v>18.751383000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>901.944000</v>
+        <v>901.94399999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-183.352000</v>
+        <v>-183.352</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>67515.053224</v>
+        <v>67515.053224000003</v>
       </c>
       <c r="G7" s="1">
-        <v>18.754181</v>
+        <v>18.754180999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>917.515000</v>
+        <v>917.51499999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-156.255000</v>
+        <v>-156.255</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>67525.232620</v>
+        <v>67525.232619999995</v>
       </c>
       <c r="L7" s="1">
         <v>18.757009</v>
       </c>
       <c r="M7" s="1">
-        <v>938.559000</v>
+        <v>938.55899999999997</v>
       </c>
       <c r="N7" s="1">
-        <v>-114.434000</v>
+        <v>-114.434</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>67535.754252</v>
+        <v>67535.754251999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>18.759932</v>
+        <v>18.759931999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>945.231000</v>
+        <v>945.23099999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-100.698000</v>
+        <v>-100.69799999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>67546.303662</v>
+        <v>67546.303662000006</v>
       </c>
       <c r="V7" s="1">
-        <v>18.762862</v>
+        <v>18.762861999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>952.293000</v>
+        <v>952.29300000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.353500</v>
+        <v>-88.353499999999997</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>67557.068376</v>
+        <v>67557.068375999996</v>
       </c>
       <c r="AA7" s="1">
-        <v>18.765852</v>
+        <v>18.765851999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.228000</v>
+        <v>960.22799999999995</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.737200</v>
+        <v>-79.737200000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>67567.617250</v>
+        <v>67567.617249999996</v>
       </c>
       <c r="AF7" s="1">
-        <v>18.768783</v>
+        <v>18.768782999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.555000</v>
+        <v>965.55499999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.609300</v>
+        <v>-79.609300000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>67578.116565</v>
+        <v>67578.116565000004</v>
       </c>
       <c r="AK7" s="1">
-        <v>18.771699</v>
+        <v>18.771699000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.876000</v>
+        <v>973.87599999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.396600</v>
+        <v>-87.396600000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>67588.417974</v>
+        <v>67588.417973999996</v>
       </c>
       <c r="AP7" s="1">
-        <v>18.774561</v>
+        <v>18.774560999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.228000</v>
+        <v>983.22799999999995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.195000</v>
+        <v>-102.19499999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>67599.397912</v>
@@ -1901,58 +2317,58 @@
         <v>18.777611</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.683000</v>
+        <v>994.68299999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.588000</v>
+        <v>-123.58799999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>67610.496889</v>
+        <v>67610.496889000002</v>
       </c>
       <c r="AZ7" s="1">
         <v>18.780694</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.177000</v>
+        <v>-142.17699999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>67621.460496</v>
       </c>
       <c r="BE7" s="1">
-        <v>18.783739</v>
+        <v>18.783739000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.700000</v>
+        <v>1049.7</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.337000</v>
+        <v>-226.33699999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>67632.645741</v>
       </c>
       <c r="BJ7" s="1">
-        <v>18.786846</v>
+        <v>18.786846000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1129.380000</v>
+        <v>1129.3800000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.838000</v>
+        <v>-360.83800000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>67643.481839</v>
@@ -1961,1540 +2377,1540 @@
         <v>18.789856</v>
       </c>
       <c r="BP7" s="1">
-        <v>1260.720000</v>
+        <v>1260.72</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-567.612000</v>
+        <v>-567.61199999999997</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>67653.882977</v>
+        <v>67653.882977000001</v>
       </c>
       <c r="BT7" s="1">
         <v>18.792745</v>
       </c>
       <c r="BU7" s="1">
-        <v>1407.000000</v>
+        <v>1407</v>
       </c>
       <c r="BV7" s="1">
-        <v>-787.748000</v>
+        <v>-787.74800000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>67664.646627</v>
+        <v>67664.646626999995</v>
       </c>
       <c r="BY7" s="1">
-        <v>18.795735</v>
+        <v>18.795735000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1567.480000</v>
+        <v>1567.48</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1016.890000</v>
+        <v>-1016.89</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>67676.140915</v>
+        <v>67676.140914999996</v>
       </c>
       <c r="CD7" s="1">
         <v>18.798928</v>
       </c>
       <c r="CE7" s="1">
-        <v>1970.660000</v>
+        <v>1970.66</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1551.720000</v>
+        <v>-1551.72</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>67505.321749</v>
+        <v>67505.321748999995</v>
       </c>
       <c r="B8" s="1">
-        <v>18.751478</v>
+        <v>18.751477999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>902.024000</v>
+        <v>902.024</v>
       </c>
       <c r="D8" s="1">
-        <v>-183.370000</v>
+        <v>-183.37</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>67515.404393</v>
+        <v>67515.404393000004</v>
       </c>
       <c r="G8" s="1">
         <v>18.754279</v>
       </c>
       <c r="H8" s="1">
-        <v>917.225000</v>
+        <v>917.22500000000002</v>
       </c>
       <c r="I8" s="1">
-        <v>-155.904000</v>
+        <v>-155.904</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>67525.577835</v>
+        <v>67525.577835000004</v>
       </c>
       <c r="L8" s="1">
-        <v>18.757105</v>
+        <v>18.757104999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>938.567000</v>
+        <v>938.56700000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-114.447000</v>
+        <v>-114.447</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>67536.101948</v>
+        <v>67536.101947999996</v>
       </c>
       <c r="Q8" s="1">
-        <v>18.760028</v>
+        <v>18.760027999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>945.240000</v>
+        <v>945.24</v>
       </c>
       <c r="S8" s="1">
-        <v>-100.619000</v>
+        <v>-100.619</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>67546.961864</v>
+        <v>67546.961863999997</v>
       </c>
       <c r="V8" s="1">
-        <v>18.763045</v>
+        <v>18.763045000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>952.160000</v>
+        <v>952.16</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.183800</v>
+        <v>-88.183800000000005</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>67557.451287</v>
+        <v>67557.451287000004</v>
       </c>
       <c r="AA8" s="1">
-        <v>18.765959</v>
+        <v>18.765958999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.176000</v>
+        <v>960.17600000000004</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.749500</v>
+        <v>-79.749499999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>67567.990739</v>
+        <v>67567.990739000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>18.768886</v>
+        <v>18.768885999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.611000</v>
+        <v>965.61099999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.576200</v>
+        <v>-79.5762</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>67578.466740</v>
+        <v>67578.466740000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>18.771796</v>
+        <v>18.771795999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.843000</v>
+        <v>973.84299999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.369500</v>
+        <v>-87.369500000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>67588.773607</v>
+        <v>67588.773606999996</v>
       </c>
       <c r="AP8" s="1">
         <v>18.774659</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.211000</v>
+        <v>983.21100000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.199000</v>
+        <v>-102.199</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>67599.762999</v>
+        <v>67599.762998999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>18.777712</v>
+        <v>18.777712000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.680000</v>
+        <v>994.68</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.601000</v>
+        <v>-123.601</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>67610.924937</v>
+        <v>67610.924937000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>18.780812</v>
+        <v>18.780812000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.200000</v>
+        <v>-142.19999999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>67621.898463</v>
+        <v>67621.898463000005</v>
       </c>
       <c r="BE8" s="1">
-        <v>18.783861</v>
+        <v>18.783861000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1049.710000</v>
+        <v>1049.71</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.346000</v>
+        <v>-226.346</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>67633.002861</v>
+        <v>67633.002861000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>18.786945</v>
+        <v>18.786944999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1129.320000</v>
+        <v>1129.32</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.768000</v>
+        <v>-360.76799999999997</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>67643.899965</v>
+        <v>67643.899965000004</v>
       </c>
       <c r="BO8" s="1">
-        <v>18.789972</v>
+        <v>18.789971999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1260.650000</v>
+        <v>1260.6500000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-567.625000</v>
+        <v>-567.625</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>67654.299088</v>
       </c>
       <c r="BT8" s="1">
-        <v>18.792861</v>
+        <v>18.792860999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>1407.060000</v>
+        <v>1407.06</v>
       </c>
       <c r="BV8" s="1">
-        <v>-787.608000</v>
+        <v>-787.60799999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>67665.071699</v>
+        <v>67665.071698999993</v>
       </c>
       <c r="BY8" s="1">
-        <v>18.795853</v>
+        <v>18.795853000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1567.580000</v>
+        <v>1567.58</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1016.930000</v>
+        <v>-1016.93</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>67676.669154</v>
+        <v>67676.669154000003</v>
       </c>
       <c r="CD8" s="1">
-        <v>18.799075</v>
+        <v>18.799074999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>1969.120000</v>
+        <v>1969.12</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1551.140000</v>
+        <v>-1551.14</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>67505.665094</v>
+        <v>67505.665093999996</v>
       </c>
       <c r="B9" s="1">
-        <v>18.751574</v>
+        <v>18.751574000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>901.857000</v>
+        <v>901.85699999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-183.440000</v>
+        <v>-183.44</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>67515.749143</v>
+        <v>67515.749142999994</v>
       </c>
       <c r="G9" s="1">
         <v>18.754375</v>
       </c>
       <c r="H9" s="1">
-        <v>917.347000</v>
+        <v>917.34699999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-156.256000</v>
+        <v>-156.256</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>67526.237514</v>
+        <v>67526.237513999993</v>
       </c>
       <c r="L9" s="1">
-        <v>18.757288</v>
+        <v>18.757287999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>938.617000</v>
+        <v>938.61699999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>-114.352000</v>
+        <v>-114.352</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>67536.794859</v>
+        <v>67536.794859000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>18.760221</v>
+        <v>18.760221000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>945.303000</v>
+        <v>945.303</v>
       </c>
       <c r="S9" s="1">
-        <v>-100.649000</v>
+        <v>-100.649</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>67547.333853</v>
+        <v>67547.333853000004</v>
       </c>
       <c r="V9" s="1">
-        <v>18.763148</v>
+        <v>18.763148000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>952.328000</v>
+        <v>952.32799999999997</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.258100</v>
+        <v>-88.258099999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>67557.798485</v>
+        <v>67557.798485000007</v>
       </c>
       <c r="AA9" s="1">
-        <v>18.766055</v>
+        <v>18.766055000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.215000</v>
+        <v>960.21500000000003</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.765700</v>
+        <v>-79.765699999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>67568.331985</v>
+        <v>67568.331984999997</v>
       </c>
       <c r="AF9" s="1">
         <v>18.768981</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.566000</v>
+        <v>965.56600000000003</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.591100</v>
+        <v>-79.591099999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>67578.814933</v>
+        <v>67578.814933000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>18.771893</v>
+        <v>18.771892999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.889000</v>
+        <v>973.88900000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.372700</v>
+        <v>-87.372699999999995</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>67589.195734</v>
+        <v>67589.195733999994</v>
       </c>
       <c r="AP9" s="1">
         <v>18.774777</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.222000</v>
+        <v>983.22199999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.214000</v>
+        <v>-102.214</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>67600.183112</v>
+        <v>67600.183111999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>18.777829</v>
+        <v>18.777829000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.685000</v>
+        <v>994.68499999999995</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.579000</v>
+        <v>-123.57899999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>67611.215096</v>
       </c>
       <c r="AZ9" s="1">
-        <v>18.780893</v>
+        <v>18.780892999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.171000</v>
+        <v>-142.17099999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>67622.185115</v>
       </c>
       <c r="BE9" s="1">
-        <v>18.783940</v>
+        <v>18.783940000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.710000</v>
+        <v>1049.71</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.328000</v>
+        <v>-226.328</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>67633.376843</v>
+        <v>67633.376843000005</v>
       </c>
       <c r="BJ9" s="1">
         <v>18.787049</v>
       </c>
       <c r="BK9" s="1">
-        <v>1129.370000</v>
+        <v>1129.3699999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.862000</v>
+        <v>-360.86200000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>67644.296269</v>
+        <v>67644.296268999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>18.790082</v>
+        <v>18.790082000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1260.690000</v>
+        <v>1260.69</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-567.597000</v>
+        <v>-567.59699999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>67654.712255</v>
+        <v>67654.712255000006</v>
       </c>
       <c r="BT9" s="1">
-        <v>18.792976</v>
+        <v>18.792975999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1407.110000</v>
+        <v>1407.11</v>
       </c>
       <c r="BV9" s="1">
-        <v>-787.622000</v>
+        <v>-787.62199999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>67665.498257</v>
+        <v>67665.498256999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>18.795972</v>
+        <v>18.795971999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1567.630000</v>
+        <v>1567.63</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1016.890000</v>
+        <v>-1016.89</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>67677.190450</v>
+        <v>67677.190449999995</v>
       </c>
       <c r="CD9" s="1">
-        <v>18.799220</v>
+        <v>18.799219999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>1969.680000</v>
+        <v>1969.68</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1553.510000</v>
+        <v>-1553.51</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>67506.331695</v>
+        <v>67506.331695000001</v>
       </c>
       <c r="B10" s="1">
         <v>18.751759</v>
       </c>
       <c r="C10" s="1">
-        <v>901.876000</v>
+        <v>901.87599999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>-183.391000</v>
+        <v>-183.39099999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>67516.412758</v>
+        <v>67516.412758000006</v>
       </c>
       <c r="G10" s="1">
         <v>18.754559</v>
       </c>
       <c r="H10" s="1">
-        <v>917.192000</v>
+        <v>917.19200000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-156.436000</v>
+        <v>-156.43600000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>67526.613978</v>
+        <v>67526.613977999994</v>
       </c>
       <c r="L10" s="1">
         <v>18.757393</v>
       </c>
       <c r="M10" s="1">
-        <v>938.496000</v>
+        <v>938.49599999999998</v>
       </c>
       <c r="N10" s="1">
-        <v>-114.356000</v>
+        <v>-114.35599999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>67537.148508</v>
+        <v>67537.148507999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>18.760319</v>
+        <v>18.760318999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>945.298000</v>
+        <v>945.298</v>
       </c>
       <c r="S10" s="1">
-        <v>-100.711000</v>
+        <v>-100.711</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>67547.677903</v>
+        <v>67547.677903000003</v>
       </c>
       <c r="V10" s="1">
         <v>18.763244</v>
       </c>
       <c r="W10" s="1">
-        <v>952.413000</v>
+        <v>952.41300000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.365500</v>
+        <v>-88.365499999999997</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>67558.147663</v>
+        <v>67558.147662999996</v>
       </c>
       <c r="AA10" s="1">
-        <v>18.766152</v>
+        <v>18.766152000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.218000</v>
+        <v>960.21799999999996</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.764400</v>
+        <v>-79.764399999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>67568.676706</v>
+        <v>67568.676705999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>18.769077</v>
+        <v>18.769076999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.580000</v>
+        <v>965.58</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.542700</v>
+        <v>-79.542699999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>67579.237523</v>
+        <v>67579.237523000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>18.772010</v>
+        <v>18.772010000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.874000</v>
+        <v>973.87400000000002</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.380900</v>
+        <v>-87.380899999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>67589.498757</v>
+        <v>67589.498756999994</v>
       </c>
       <c r="AP10" s="1">
-        <v>18.774861</v>
+        <v>18.774861000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.231000</v>
+        <v>983.23099999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.194000</v>
+        <v>-102.194</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>67600.490601</v>
+        <v>67600.490600999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>18.777914</v>
+        <v>18.777913999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.701000</v>
+        <v>994.70100000000002</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.573000</v>
+        <v>-123.57299999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>67611.572100</v>
+        <v>67611.572100000005</v>
       </c>
       <c r="AZ10" s="1">
-        <v>18.780992</v>
+        <v>18.780992000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.350000</v>
+        <v>1004.35</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.179000</v>
+        <v>-142.179</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>67622.535814</v>
+        <v>67622.535814000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>18.784038</v>
+        <v>18.784037999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1049.720000</v>
+        <v>1049.72</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.326000</v>
+        <v>-226.32599999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>67633.753520</v>
+        <v>67633.753519999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>18.787154</v>
+        <v>18.787154000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1129.390000</v>
+        <v>1129.3900000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.799000</v>
+        <v>-360.79899999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>67644.720845</v>
+        <v>67644.720845000003</v>
       </c>
       <c r="BO10" s="1">
-        <v>18.790200</v>
+        <v>18.790199999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1260.650000</v>
+        <v>1260.6500000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-567.606000</v>
+        <v>-567.60599999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>67655.155183</v>
+        <v>67655.155182999995</v>
       </c>
       <c r="BT10" s="1">
-        <v>18.793099</v>
+        <v>18.793099000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1407.080000</v>
+        <v>1407.08</v>
       </c>
       <c r="BV10" s="1">
-        <v>-787.517000</v>
+        <v>-787.51700000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>67665.934736</v>
+        <v>67665.934735999996</v>
       </c>
       <c r="BY10" s="1">
-        <v>18.796093</v>
+        <v>18.796092999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1567.730000</v>
+        <v>1567.73</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1016.890000</v>
+        <v>-1016.89</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>67677.727649</v>
+        <v>67677.727648999993</v>
       </c>
       <c r="CD10" s="1">
-        <v>18.799369</v>
+        <v>18.799368999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1970.370000</v>
+        <v>1970.37</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1551.420000</v>
+        <v>-1551.42</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>67506.690180</v>
+        <v>67506.690180000005</v>
       </c>
       <c r="B11" s="1">
-        <v>18.751858</v>
+        <v>18.751857999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>901.943000</v>
+        <v>901.94299999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>-183.291000</v>
+        <v>-183.291</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>67516.781816</v>
+        <v>67516.781816000002</v>
       </c>
       <c r="G11" s="1">
         <v>18.754662</v>
       </c>
       <c r="H11" s="1">
-        <v>917.165000</v>
+        <v>917.16499999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-156.527000</v>
+        <v>-156.52699999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>67526.956759</v>
+        <v>67526.956758999993</v>
       </c>
       <c r="L11" s="1">
-        <v>18.757488</v>
+        <v>18.757487999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>938.563000</v>
+        <v>938.56299999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-114.490000</v>
+        <v>-114.49</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>67537.498224</v>
+        <v>67537.498223999995</v>
       </c>
       <c r="Q11" s="1">
-        <v>18.760416</v>
+        <v>18.760415999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>945.252000</v>
+        <v>945.25199999999995</v>
       </c>
       <c r="S11" s="1">
-        <v>-100.717000</v>
+        <v>-100.717</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>67548.019324</v>
+        <v>67548.019323999994</v>
       </c>
       <c r="V11" s="1">
-        <v>18.763339</v>
+        <v>18.763338999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>952.273000</v>
+        <v>952.27300000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.308500</v>
+        <v>-88.308499999999995</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>67558.576176</v>
+        <v>67558.576176000002</v>
       </c>
       <c r="AA11" s="1">
         <v>18.766271</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.183000</v>
+        <v>960.18299999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.789600</v>
+        <v>-79.789599999999993</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>67569.107729</v>
+        <v>67569.107728999996</v>
       </c>
       <c r="AF11" s="1">
-        <v>18.769197</v>
+        <v>18.769196999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.503000</v>
+        <v>965.50300000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.623300</v>
+        <v>-79.6233</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>67579.513832</v>
+        <v>67579.513831999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>18.772087</v>
+        <v>18.772086999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.869000</v>
+        <v>973.86900000000003</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.381500</v>
+        <v>-87.381500000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>67589.857367</v>
+        <v>67589.857367000004</v>
       </c>
       <c r="AP11" s="1">
-        <v>18.774960</v>
+        <v>18.77496</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.210000</v>
+        <v>983.21</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.206000</v>
+        <v>-102.206</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>67600.858135</v>
+        <v>67600.858135000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>18.778016</v>
+        <v>18.778016000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.665000</v>
+        <v>994.66499999999996</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.569000</v>
+        <v>-123.569</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>67611.933800</v>
+        <v>67611.933799999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>18.781093</v>
+        <v>18.781092999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.183000</v>
+        <v>-142.18299999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>67623.270360</v>
+        <v>67623.270359999995</v>
       </c>
       <c r="BE11" s="1">
-        <v>18.784242</v>
+        <v>18.784241999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.720000</v>
+        <v>1049.72</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.324000</v>
+        <v>-226.32400000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>67634.524091</v>
+        <v>67634.524090999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>18.787368</v>
+        <v>18.787368000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1129.360000</v>
+        <v>1129.3599999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.843000</v>
+        <v>-360.84300000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>67645.113181</v>
+        <v>67645.113180999993</v>
       </c>
       <c r="BO11" s="1">
-        <v>18.790309</v>
+        <v>18.790309000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1260.680000</v>
+        <v>1260.68</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-567.610000</v>
+        <v>-567.61</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>67655.569839</v>
+        <v>67655.569839000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>18.793214</v>
+        <v>18.793213999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1407.160000</v>
+        <v>1407.16</v>
       </c>
       <c r="BV11" s="1">
-        <v>-787.356000</v>
+        <v>-787.35599999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>67666.356832</v>
+        <v>67666.356832000005</v>
       </c>
       <c r="BY11" s="1">
-        <v>18.796210</v>
+        <v>18.796209999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1567.520000</v>
+        <v>1567.52</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1016.880000</v>
+        <v>-1016.88</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>67678.579247</v>
+        <v>67678.579247000001</v>
       </c>
       <c r="CD11" s="1">
         <v>18.799605</v>
       </c>
       <c r="CE11" s="1">
-        <v>1970.150000</v>
+        <v>1970.15</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1553.200000</v>
+        <v>-1553.2</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>67507.034931</v>
+        <v>67507.034931000002</v>
       </c>
       <c r="B12" s="1">
-        <v>18.751954</v>
+        <v>18.751954000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>901.886000</v>
+        <v>901.88599999999997</v>
       </c>
       <c r="D12" s="1">
-        <v>-183.445000</v>
+        <v>-183.44499999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>67517.127493</v>
+        <v>67517.127493000007</v>
       </c>
       <c r="G12" s="1">
-        <v>18.754758</v>
+        <v>18.754757999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>917.245000</v>
+        <v>917.245</v>
       </c>
       <c r="I12" s="1">
-        <v>-157.041000</v>
+        <v>-157.041</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>67527.303911</v>
+        <v>67527.303910999995</v>
       </c>
       <c r="L12" s="1">
-        <v>18.757584</v>
+        <v>18.757584000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>938.515000</v>
+        <v>938.51499999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-114.402000</v>
+        <v>-114.402</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>67537.914362</v>
+        <v>67537.914361999996</v>
       </c>
       <c r="Q12" s="1">
-        <v>18.760532</v>
+        <v>18.760532000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>945.215000</v>
+        <v>945.21500000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-100.696000</v>
+        <v>-100.696</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>67548.445388</v>
+        <v>67548.445387999993</v>
       </c>
       <c r="V12" s="1">
-        <v>18.763457</v>
+        <v>18.763456999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>952.272000</v>
+        <v>952.27200000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.314500</v>
+        <v>-88.314499999999995</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>67558.849472</v>
+        <v>67558.849472000002</v>
       </c>
       <c r="AA12" s="1">
         <v>18.766347</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.186000</v>
+        <v>960.18600000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.772200</v>
+        <v>-79.772199999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>67569.390982</v>
+        <v>67569.390981999997</v>
       </c>
       <c r="AF12" s="1">
         <v>18.769275</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.630000</v>
+        <v>965.63</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.623400</v>
+        <v>-79.623400000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>67579.862484</v>
+        <v>67579.862483999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>18.772184</v>
+        <v>18.772183999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.860000</v>
+        <v>973.86</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.375300</v>
+        <v>-87.375299999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>67590.217956</v>
+        <v>67590.217955999993</v>
       </c>
       <c r="AP12" s="1">
-        <v>18.775061</v>
+        <v>18.775061000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.221000</v>
+        <v>983.221</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.206000</v>
+        <v>-102.206</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>67601.223072</v>
+        <v>67601.223071999993</v>
       </c>
       <c r="AU12" s="1">
-        <v>18.778118</v>
+        <v>18.778117999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.692000</v>
+        <v>994.69200000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.564000</v>
+        <v>-123.56399999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>67612.655480</v>
+        <v>67612.655480000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>18.781293</v>
+        <v>18.781293000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.165000</v>
+        <v>-142.16499999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>67623.654589</v>
+        <v>67623.654588999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>18.784348</v>
+        <v>18.784348000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.720000</v>
+        <v>1049.72</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.325000</v>
+        <v>-226.32499999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>67634.898570</v>
+        <v>67634.898570000005</v>
       </c>
       <c r="BJ12" s="1">
-        <v>18.787472</v>
+        <v>18.787472000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1129.360000</v>
+        <v>1129.3599999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.779000</v>
+        <v>-360.779</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>67645.535911</v>
+        <v>67645.535910999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>18.790427</v>
+        <v>18.790427000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1260.670000</v>
+        <v>1260.67</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-567.617000</v>
+        <v>-567.61699999999996</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>67655.996930</v>
+        <v>67655.996929999994</v>
       </c>
       <c r="BT12" s="1">
-        <v>18.793332</v>
+        <v>18.793331999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1407.340000</v>
+        <v>1407.34</v>
       </c>
       <c r="BV12" s="1">
-        <v>-787.406000</v>
+        <v>-787.40599999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>67667.090415</v>
+        <v>67667.090414999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>18.796414</v>
+        <v>18.796413999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1567.530000</v>
+        <v>1567.53</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1016.910000</v>
+        <v>-1016.91</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>67678.804433</v>
+        <v>67678.804432999998</v>
       </c>
       <c r="CD12" s="1">
         <v>18.799668</v>
       </c>
       <c r="CE12" s="1">
-        <v>1970.150000</v>
+        <v>1970.15</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1553.220000</v>
+        <v>-1553.22</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>67507.372683</v>
+        <v>67507.372682999994</v>
       </c>
       <c r="B13" s="1">
-        <v>18.752048</v>
+        <v>18.752047999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>901.906000</v>
+        <v>901.90599999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-183.402000</v>
+        <v>-183.40199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>67517.471748</v>
+        <v>67517.471747999996</v>
       </c>
       <c r="G13" s="1">
-        <v>18.754853</v>
+        <v>18.754853000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>917.133000</v>
+        <v>917.13300000000004</v>
       </c>
       <c r="I13" s="1">
-        <v>-156.606000</v>
+        <v>-156.60599999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>67527.719591</v>
+        <v>67527.719591000001</v>
       </c>
       <c r="L13" s="1">
-        <v>18.757700</v>
+        <v>18.7577</v>
       </c>
       <c r="M13" s="1">
-        <v>938.483000</v>
+        <v>938.48299999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-114.271000</v>
+        <v>-114.271</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>67538.206474</v>
+        <v>67538.206474000006</v>
       </c>
       <c r="Q13" s="1">
-        <v>18.760613</v>
+        <v>18.760612999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>945.214000</v>
+        <v>945.21400000000006</v>
       </c>
       <c r="S13" s="1">
-        <v>-100.724000</v>
+        <v>-100.724</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>67548.711322</v>
+        <v>67548.711322000003</v>
       </c>
       <c r="V13" s="1">
         <v>18.763531</v>
       </c>
       <c r="W13" s="1">
-        <v>952.189000</v>
+        <v>952.18899999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.251000</v>
+        <v>-88.251000000000005</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>67559.199680</v>
+        <v>67559.199680000005</v>
       </c>
       <c r="AA13" s="1">
         <v>18.766444</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.268000</v>
+        <v>960.26800000000003</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.811900</v>
+        <v>-79.811899999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>67569.732688</v>
+        <v>67569.732688000004</v>
       </c>
       <c r="AF13" s="1">
-        <v>18.769370</v>
+        <v>18.769369999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.557000</v>
+        <v>965.55700000000002</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.635700</v>
+        <v>-79.6357</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>67580.208194</v>
+        <v>67580.208194000006</v>
       </c>
       <c r="AK13" s="1">
-        <v>18.772280</v>
+        <v>18.772279999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.855000</v>
+        <v>973.85500000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.397600</v>
+        <v>-87.397599999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>67590.938148</v>
+        <v>67590.938148000001</v>
       </c>
       <c r="AP13" s="1">
         <v>18.775261</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.212000</v>
+        <v>983.21199999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.208000</v>
+        <v>-102.208</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>67601.950356</v>
+        <v>67601.950356000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>18.778320</v>
+        <v>18.778320000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.676000</v>
+        <v>994.67600000000004</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.575000</v>
+        <v>-123.575</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>67613.030951</v>
+        <v>67613.030950999993</v>
       </c>
       <c r="AZ13" s="1">
-        <v>18.781397</v>
+        <v>18.781396999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.350000</v>
+        <v>1004.35</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.149000</v>
+        <v>-142.149</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>67624.014361</v>
+        <v>67624.014360999994</v>
       </c>
       <c r="BE13" s="1">
-        <v>18.784448</v>
+        <v>18.784448000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1049.720000</v>
+        <v>1049.72</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.336000</v>
+        <v>-226.33600000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>67635.274539</v>
+        <v>67635.274539000005</v>
       </c>
       <c r="BJ13" s="1">
-        <v>18.787576</v>
+        <v>18.787576000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1129.370000</v>
+        <v>1129.3699999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.852000</v>
+        <v>-360.85199999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>67646.242113</v>
@@ -3503,1056 +3919,1056 @@
         <v>18.790623</v>
       </c>
       <c r="BP13" s="1">
-        <v>1260.680000</v>
+        <v>1260.68</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-567.606000</v>
+        <v>-567.60599999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>67656.456686</v>
+        <v>67656.456686000005</v>
       </c>
       <c r="BT13" s="1">
-        <v>18.793460</v>
+        <v>18.79346</v>
       </c>
       <c r="BU13" s="1">
-        <v>1407.380000</v>
+        <v>1407.38</v>
       </c>
       <c r="BV13" s="1">
-        <v>-787.321000</v>
+        <v>-787.32100000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>67667.259552</v>
+        <v>67667.259552000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>18.796461</v>
+        <v>18.796461000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1567.650000</v>
+        <v>1567.65</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1016.890000</v>
+        <v>-1016.89</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>67679.326720</v>
+        <v>67679.326719999997</v>
       </c>
       <c r="CD13" s="1">
         <v>18.799813</v>
       </c>
       <c r="CE13" s="1">
-        <v>1970.800000</v>
+        <v>1970.8</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1551.770000</v>
+        <v>-1551.77</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>67507.783363</v>
+        <v>67507.783362999995</v>
       </c>
       <c r="B14" s="1">
-        <v>18.752162</v>
+        <v>18.752161999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>901.959000</v>
+        <v>901.95899999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>-183.347000</v>
+        <v>-183.34700000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>67517.889386</v>
+        <v>67517.889385999995</v>
       </c>
       <c r="G14" s="1">
-        <v>18.754969</v>
+        <v>18.754968999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>917.319000</v>
+        <v>917.31899999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>-156.310000</v>
+        <v>-156.31</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>67528.006247</v>
+        <v>67528.006246999998</v>
       </c>
       <c r="L14" s="1">
-        <v>18.757780</v>
+        <v>18.75778</v>
       </c>
       <c r="M14" s="1">
-        <v>938.556000</v>
+        <v>938.55600000000004</v>
       </c>
       <c r="N14" s="1">
-        <v>-114.322000</v>
+        <v>-114.322</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>67538.553700</v>
+        <v>67538.553700000004</v>
       </c>
       <c r="Q14" s="1">
-        <v>18.760709</v>
+        <v>18.760708999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>945.235000</v>
+        <v>945.23500000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-100.675000</v>
+        <v>-100.675</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>67549.057947</v>
+        <v>67549.057946999994</v>
       </c>
       <c r="V14" s="1">
         <v>18.763627</v>
       </c>
       <c r="W14" s="1">
-        <v>952.151000</v>
+        <v>952.15099999999995</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.332600</v>
+        <v>-88.332599999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>67559.547341</v>
+        <v>67559.547340999998</v>
       </c>
       <c r="AA14" s="1">
         <v>18.766541</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.192000</v>
+        <v>960.19200000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.708900</v>
+        <v>-79.7089</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>67570.074928</v>
+        <v>67570.074928000002</v>
       </c>
       <c r="AF14" s="1">
         <v>18.769465</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.566000</v>
+        <v>965.56600000000003</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.567800</v>
+        <v>-79.567800000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>67580.907552</v>
+        <v>67580.907552000004</v>
       </c>
       <c r="AK14" s="1">
-        <v>18.772474</v>
+        <v>18.772473999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.869000</v>
+        <v>973.86900000000003</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.373700</v>
+        <v>-87.373699999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>67591.298740</v>
+        <v>67591.298739999998</v>
       </c>
       <c r="AP14" s="1">
         <v>18.775361</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.229000</v>
+        <v>983.22900000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.215000</v>
+        <v>-102.215</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>67602.315906</v>
+        <v>67602.315906000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>18.778421</v>
+        <v>18.778421000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.695000</v>
+        <v>994.69500000000005</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.561000</v>
+        <v>-123.56100000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>67613.410391</v>
+        <v>67613.410390999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>18.781503</v>
+        <v>18.781503000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.320000</v>
+        <v>1004.32</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.177000</v>
+        <v>-142.17699999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>67624.695863</v>
+        <v>67624.695863000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>18.784638</v>
+        <v>18.784638000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.710000</v>
+        <v>1049.71</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.328000</v>
+        <v>-226.328</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>67635.959053</v>
+        <v>67635.959052999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>18.787766</v>
+        <v>18.787766000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1129.370000</v>
+        <v>1129.3699999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.850000</v>
+        <v>-360.85</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>67646.352188</v>
+        <v>67646.352188000004</v>
       </c>
       <c r="BO14" s="1">
-        <v>18.790653</v>
+        <v>18.790652999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1260.700000</v>
+        <v>1260.7</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-567.627000</v>
+        <v>-567.62699999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>67656.850012</v>
+        <v>67656.850011999995</v>
       </c>
       <c r="BT14" s="1">
-        <v>18.793569</v>
+        <v>18.793569000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>1407.470000</v>
+        <v>1407.47</v>
       </c>
       <c r="BV14" s="1">
-        <v>-787.330000</v>
+        <v>-787.33</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>67667.685614</v>
+        <v>67667.685614000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>18.796579</v>
+        <v>18.796579000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1567.790000</v>
+        <v>1567.79</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1017.090000</v>
+        <v>-1017.09</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>67679.844574</v>
+        <v>67679.844574000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>18.799957</v>
+        <v>18.799956999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1970.630000</v>
+        <v>1970.63</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1552.600000</v>
+        <v>-1552.6</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>67508.074549</v>
+        <v>67508.074548999997</v>
       </c>
       <c r="B15" s="1">
         <v>18.752243</v>
       </c>
       <c r="C15" s="1">
-        <v>901.961000</v>
+        <v>901.96100000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-183.270000</v>
+        <v>-183.27</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>67518.179013</v>
+        <v>67518.179013000001</v>
       </c>
       <c r="G15" s="1">
-        <v>18.755050</v>
+        <v>18.755050000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>917.468000</v>
+        <v>917.46799999999996</v>
       </c>
       <c r="I15" s="1">
-        <v>-156.783000</v>
+        <v>-156.78299999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>67528.351958</v>
+        <v>67528.351957999999</v>
       </c>
       <c r="L15" s="1">
         <v>18.757876</v>
       </c>
       <c r="M15" s="1">
-        <v>938.539000</v>
+        <v>938.53899999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-114.396000</v>
+        <v>-114.396</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>67538.902856</v>
+        <v>67538.902856000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>18.760806</v>
+        <v>18.760805999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>945.275000</v>
+        <v>945.27499999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-100.663000</v>
+        <v>-100.663</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>67549.399227</v>
+        <v>67549.399227000002</v>
       </c>
       <c r="V15" s="1">
-        <v>18.763722</v>
+        <v>18.763722000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>952.249000</v>
+        <v>952.24900000000002</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.280600</v>
+        <v>-88.280600000000007</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>67560.243533</v>
+        <v>67560.243533000001</v>
       </c>
       <c r="AA15" s="1">
         <v>18.766734</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.277000</v>
+        <v>960.27700000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.748200</v>
+        <v>-79.748199999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>67570.761390</v>
+        <v>67570.76139</v>
       </c>
       <c r="AF15" s="1">
-        <v>18.769656</v>
+        <v>18.769656000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.607000</v>
+        <v>965.60699999999997</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.591800</v>
+        <v>-79.591800000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>67581.253297</v>
+        <v>67581.253297000003</v>
       </c>
       <c r="AK15" s="1">
-        <v>18.772570</v>
+        <v>18.772570000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.869000</v>
+        <v>973.86900000000003</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.383500</v>
+        <v>-87.383499999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>67591.659828</v>
+        <v>67591.659828000003</v>
       </c>
       <c r="AP15" s="1">
         <v>18.775461</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.228000</v>
+        <v>983.22799999999995</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.199000</v>
+        <v>-102.199</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>67602.679942</v>
+        <v>67602.679942000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>18.778522</v>
+        <v>18.778521999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.681000</v>
+        <v>994.68100000000004</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.581000</v>
+        <v>-123.581</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>67614.079529</v>
+        <v>67614.079528999995</v>
       </c>
       <c r="AZ15" s="1">
         <v>18.781689</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.178000</v>
+        <v>-142.178</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>67625.126888</v>
+        <v>67625.126887999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>18.784757</v>
+        <v>18.784756999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1049.710000</v>
+        <v>1049.71</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.324000</v>
+        <v>-226.32400000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>67636.069670</v>
+        <v>67636.069669999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>18.787797</v>
+        <v>18.787797000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1129.330000</v>
+        <v>1129.33</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.847000</v>
+        <v>-360.84699999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>67646.778251</v>
+        <v>67646.778250999996</v>
       </c>
       <c r="BO15" s="1">
         <v>18.790772</v>
       </c>
       <c r="BP15" s="1">
-        <v>1260.640000</v>
+        <v>1260.6400000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-567.593000</v>
+        <v>-567.59299999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>67657.263676</v>
+        <v>67657.263676000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>18.793684</v>
+        <v>18.793683999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1407.610000</v>
+        <v>1407.61</v>
       </c>
       <c r="BV15" s="1">
-        <v>-787.416000</v>
+        <v>-787.41600000000005</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>67668.132544</v>
+        <v>67668.132543999993</v>
       </c>
       <c r="BY15" s="1">
-        <v>18.796703</v>
+        <v>18.796703000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1567.580000</v>
+        <v>1567.58</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1016.970000</v>
+        <v>-1016.97</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>67680.394607</v>
+        <v>67680.394606999995</v>
       </c>
       <c r="CD15" s="1">
-        <v>18.800110</v>
+        <v>18.80011</v>
       </c>
       <c r="CE15" s="1">
-        <v>1970.080000</v>
+        <v>1970.08</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1553.150000</v>
+        <v>-1553.15</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>67508.415275</v>
+        <v>67508.415275000007</v>
       </c>
       <c r="B16" s="1">
-        <v>18.752338</v>
+        <v>18.752338000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>901.963000</v>
+        <v>901.96299999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-183.235000</v>
+        <v>-183.23500000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>67518.528195</v>
+        <v>67518.528195000006</v>
       </c>
       <c r="G16" s="1">
-        <v>18.755147</v>
+        <v>18.755147000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>917.310000</v>
+        <v>917.31</v>
       </c>
       <c r="I16" s="1">
-        <v>-156.252000</v>
+        <v>-156.25200000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>67528.701638</v>
+        <v>67528.701637999999</v>
       </c>
       <c r="L16" s="1">
         <v>18.757973</v>
       </c>
       <c r="M16" s="1">
-        <v>938.593000</v>
+        <v>938.59299999999996</v>
       </c>
       <c r="N16" s="1">
-        <v>-114.442000</v>
+        <v>-114.44199999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>67539.601757</v>
+        <v>67539.601756999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>18.761000</v>
+        <v>18.760999999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>945.277000</v>
+        <v>945.27700000000004</v>
       </c>
       <c r="S16" s="1">
-        <v>-100.677000</v>
+        <v>-100.67700000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>67550.085658</v>
+        <v>67550.085657999996</v>
       </c>
       <c r="V16" s="1">
-        <v>18.763913</v>
+        <v>18.763912999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>952.283000</v>
+        <v>952.28300000000002</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.263600</v>
+        <v>-88.263599999999997</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>67560.595885</v>
+        <v>67560.595885000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>18.766832</v>
+        <v>18.766832000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.277000</v>
+        <v>960.27700000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.749500</v>
+        <v>-79.749499999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>67571.104623</v>
+        <v>67571.104623000007</v>
       </c>
       <c r="AF16" s="1">
-        <v>18.769751</v>
+        <v>18.769750999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.552000</v>
+        <v>965.55200000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.602500</v>
+        <v>-79.602500000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>67581.600960</v>
+        <v>67581.600959999996</v>
       </c>
       <c r="AK16" s="1">
-        <v>18.772667</v>
+        <v>18.772666999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.871000</v>
+        <v>973.87099999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.412500</v>
+        <v>-87.412499999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>67592.321491</v>
+        <v>67592.321490999995</v>
       </c>
       <c r="AP16" s="1">
-        <v>18.775645</v>
+        <v>18.775645000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.238000</v>
+        <v>983.23800000000006</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.193000</v>
+        <v>-102.193</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>67603.350533</v>
+        <v>67603.350533000004</v>
       </c>
       <c r="AU16" s="1">
-        <v>18.778708</v>
+        <v>18.778708000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.685000</v>
+        <v>994.68499999999995</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.563000</v>
+        <v>-123.563</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>67614.493652</v>
+        <v>67614.493652000005</v>
       </c>
       <c r="AZ16" s="1">
-        <v>18.781804</v>
+        <v>18.781804000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.191000</v>
+        <v>-142.191</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>67625.487016</v>
+        <v>67625.487015999999</v>
       </c>
       <c r="BE16" s="1">
         <v>18.784858</v>
       </c>
       <c r="BF16" s="1">
-        <v>1049.740000</v>
+        <v>1049.74</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.342000</v>
+        <v>-226.34200000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>67636.427275</v>
+        <v>67636.427274999995</v>
       </c>
       <c r="BJ16" s="1">
         <v>18.787896</v>
       </c>
       <c r="BK16" s="1">
-        <v>1129.380000</v>
+        <v>1129.3800000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.753000</v>
+        <v>-360.75299999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>67647.173561</v>
+        <v>67647.173561000003</v>
       </c>
       <c r="BO16" s="1">
         <v>18.790882</v>
       </c>
       <c r="BP16" s="1">
-        <v>1260.660000</v>
+        <v>1260.6600000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-567.623000</v>
+        <v>-567.62300000000005</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>67657.693707</v>
+        <v>67657.693706999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>18.793804</v>
+        <v>18.793804000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1407.740000</v>
+        <v>1407.74</v>
       </c>
       <c r="BV16" s="1">
-        <v>-787.470000</v>
+        <v>-787.47</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>67668.564525</v>
+        <v>67668.564524999994</v>
       </c>
       <c r="BY16" s="1">
         <v>18.796823</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1567.580000</v>
+        <v>1567.58</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1016.980000</v>
+        <v>-1016.98</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>67680.924333</v>
+        <v>67680.924333000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>18.800257</v>
+        <v>18.800256999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1970.650000</v>
+        <v>1970.65</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1552.030000</v>
+        <v>-1552.03</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>67508.756512</v>
+        <v>67508.756512000007</v>
       </c>
       <c r="B17" s="1">
-        <v>18.752432</v>
+        <v>18.752431999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>901.958000</v>
+        <v>901.95799999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-183.389000</v>
+        <v>-183.38900000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>67518.867460</v>
+        <v>67518.867459999994</v>
       </c>
       <c r="G17" s="1">
-        <v>18.755241</v>
+        <v>18.755241000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>917.567000</v>
+        <v>917.56700000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-156.600000</v>
+        <v>-156.6</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>67529.395543</v>
+        <v>67529.395543000006</v>
       </c>
       <c r="L17" s="1">
-        <v>18.758165</v>
+        <v>18.758165000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>938.645000</v>
+        <v>938.64499999999998</v>
       </c>
       <c r="N17" s="1">
-        <v>-114.565000</v>
+        <v>-114.565</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>67539.948919</v>
+        <v>67539.948919000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>18.761097</v>
+        <v>18.761096999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>945.274000</v>
+        <v>945.274</v>
       </c>
       <c r="S17" s="1">
-        <v>-100.718000</v>
+        <v>-100.718</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>67550.428921</v>
+        <v>67550.428920999999</v>
       </c>
       <c r="V17" s="1">
         <v>18.764008</v>
       </c>
       <c r="W17" s="1">
-        <v>952.266000</v>
+        <v>952.26599999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.304100</v>
+        <v>-88.304100000000005</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>67560.942589</v>
+        <v>67560.942588999998</v>
       </c>
       <c r="AA17" s="1">
         <v>18.766928</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.176000</v>
+        <v>960.17600000000004</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.775600</v>
+        <v>-79.775599999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>67571.755870</v>
+        <v>67571.755869999994</v>
       </c>
       <c r="AF17" s="1">
-        <v>18.769932</v>
+        <v>18.769932000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.661000</v>
+        <v>965.66099999999994</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.549100</v>
+        <v>-79.549099999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>67582.253729</v>
+        <v>67582.253729000004</v>
       </c>
       <c r="AK17" s="1">
         <v>18.772848</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.883000</v>
+        <v>973.88300000000004</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.377500</v>
+        <v>-87.377499999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>67592.773346</v>
+        <v>67592.773346000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>18.775770</v>
+        <v>18.775770000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.233000</v>
+        <v>983.23299999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.203000</v>
+        <v>-102.203</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>67603.777586</v>
+        <v>67603.777585999997</v>
       </c>
       <c r="AU17" s="1">
         <v>18.778827</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.675000</v>
+        <v>994.67499999999995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.565000</v>
+        <v>-123.565</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>67614.867140</v>
+        <v>67614.867140000002</v>
       </c>
       <c r="AZ17" s="1">
-        <v>18.781908</v>
+        <v>18.781908000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.320000</v>
+        <v>1004.32</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.159000</v>
+        <v>-142.15899999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>67625.848102</v>
+        <v>67625.848102000004</v>
       </c>
       <c r="BE17" s="1">
         <v>18.784958</v>
       </c>
       <c r="BF17" s="1">
-        <v>1049.710000</v>
+        <v>1049.71</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.337000</v>
+        <v>-226.33699999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>67636.803210</v>
+        <v>67636.803209999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>18.788001</v>
+        <v>18.788001000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1129.360000</v>
+        <v>1129.3599999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.861000</v>
+        <v>-360.86099999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>67647.596194</v>
+        <v>67647.596193999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>18.790999</v>
+        <v>18.790998999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1260.640000</v>
+        <v>1260.6400000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-567.601000</v>
+        <v>-567.601</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>67658.122746</v>
+        <v>67658.122745999994</v>
       </c>
       <c r="BT17" s="1">
-        <v>18.793923</v>
+        <v>18.793922999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1407.780000</v>
+        <v>1407.78</v>
       </c>
       <c r="BV17" s="1">
-        <v>-787.664000</v>
+        <v>-787.66399999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>67668.987148</v>
@@ -4561,45 +4977,45 @@
         <v>18.796941</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1567.650000</v>
+        <v>1567.65</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1016.880000</v>
+        <v>-1016.88</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>67681.444171</v>
+        <v>67681.444170999996</v>
       </c>
       <c r="CD17" s="1">
-        <v>18.800401</v>
+        <v>18.800401000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1968.900000</v>
+        <v>1968.9</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1551.660000</v>
+        <v>-1551.66</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>67509.442976</v>
+        <v>67509.442976000006</v>
       </c>
       <c r="B18" s="1">
         <v>18.752623</v>
       </c>
       <c r="C18" s="1">
-        <v>902.011000</v>
+        <v>902.01099999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-183.393000</v>
+        <v>-183.393</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>67519.560371</v>
@@ -4608,498 +5024,498 @@
         <v>18.755433</v>
       </c>
       <c r="H18" s="1">
-        <v>917.294000</v>
+        <v>917.29399999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-156.641000</v>
+        <v>-156.64099999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>67529.741784</v>
+        <v>67529.741783999998</v>
       </c>
       <c r="L18" s="1">
-        <v>18.758262</v>
+        <v>18.758261999999998</v>
       </c>
       <c r="M18" s="1">
-        <v>938.557000</v>
+        <v>938.55700000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-114.342000</v>
+        <v>-114.342</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>67540.298102</v>
+        <v>67540.298102000001</v>
       </c>
       <c r="Q18" s="1">
         <v>18.761194</v>
       </c>
       <c r="R18" s="1">
-        <v>945.250000</v>
+        <v>945.25</v>
       </c>
       <c r="S18" s="1">
-        <v>-100.670000</v>
+        <v>-100.67</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>67550.773144</v>
+        <v>67550.773144000006</v>
       </c>
       <c r="V18" s="1">
         <v>18.764104</v>
       </c>
       <c r="W18" s="1">
-        <v>952.170000</v>
+        <v>952.17</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.345900</v>
+        <v>-88.3459</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>67561.607759</v>
+        <v>67561.607759000006</v>
       </c>
       <c r="AA18" s="1">
-        <v>18.767113</v>
+        <v>18.767112999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.203000</v>
+        <v>960.20299999999997</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.724600</v>
+        <v>-79.724599999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>67572.132334</v>
+        <v>67572.132333999994</v>
       </c>
       <c r="AF18" s="1">
-        <v>18.770037</v>
+        <v>18.770036999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.546000</v>
+        <v>965.54600000000005</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.560100</v>
+        <v>-79.560100000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>67582.647518</v>
+        <v>67582.647517999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>18.772958</v>
+        <v>18.772957999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.890000</v>
+        <v>973.89</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.372800</v>
+        <v>-87.372799999999998</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>67593.132977</v>
+        <v>67593.132977000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>18.775870</v>
+        <v>18.775870000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.206000</v>
+        <v>983.20600000000002</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.202000</v>
+        <v>-102.202</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>67604.139186</v>
       </c>
       <c r="AU18" s="1">
-        <v>18.778928</v>
+        <v>18.778928000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.670000</v>
+        <v>994.67</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.569000</v>
+        <v>-123.569</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>67615.248595</v>
+        <v>67615.248594999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>18.782013</v>
+        <v>18.782012999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.186000</v>
+        <v>-142.18600000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>67626.261733</v>
+        <v>67626.261733000007</v>
       </c>
       <c r="BE18" s="1">
-        <v>18.785073</v>
+        <v>18.785073000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1049.730000</v>
+        <v>1049.73</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.332000</v>
+        <v>-226.33199999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>67637.223815</v>
+        <v>67637.223815000005</v>
       </c>
       <c r="BJ18" s="1">
-        <v>18.788118</v>
+        <v>18.788118000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1129.330000</v>
+        <v>1129.33</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.818000</v>
+        <v>-360.81799999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>67647.992967</v>
+        <v>67647.992966999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>18.791109</v>
+        <v>18.791108999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1260.660000</v>
+        <v>1260.6600000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-567.593000</v>
+        <v>-567.59299999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>67658.533434</v>
+        <v>67658.533433999997</v>
       </c>
       <c r="BT18" s="1">
-        <v>18.794037</v>
+        <v>18.794036999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1407.740000</v>
+        <v>1407.74</v>
       </c>
       <c r="BV18" s="1">
-        <v>-787.701000</v>
+        <v>-787.70100000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>67669.406274</v>
+        <v>67669.406273999994</v>
       </c>
       <c r="BY18" s="1">
-        <v>18.797057</v>
+        <v>18.797056999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1567.570000</v>
+        <v>1567.57</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1016.920000</v>
+        <v>-1016.92</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>67681.984811</v>
+        <v>67681.984811000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>18.800551</v>
+        <v>18.800550999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1969.980000</v>
+        <v>1969.98</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1553.030000</v>
+        <v>-1553.03</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>67509.785743</v>
       </c>
       <c r="B19" s="1">
-        <v>18.752718</v>
+        <v>18.752718000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>901.987000</v>
+        <v>901.98699999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>-183.443000</v>
+        <v>-183.44300000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>67519.904628</v>
+        <v>67519.904628000004</v>
       </c>
       <c r="G19" s="1">
-        <v>18.755529</v>
+        <v>18.755528999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>917.850000</v>
+        <v>917.85</v>
       </c>
       <c r="I19" s="1">
-        <v>-156.450000</v>
+        <v>-156.44999999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>67530.092421</v>
+        <v>67530.092420999994</v>
       </c>
       <c r="L19" s="1">
-        <v>18.758359</v>
+        <v>18.758358999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>938.448000</v>
+        <v>938.44799999999998</v>
       </c>
       <c r="N19" s="1">
-        <v>-114.394000</v>
+        <v>-114.39400000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>67540.954805</v>
+        <v>67540.954805000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>18.761376</v>
+        <v>18.761375999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>945.267000</v>
+        <v>945.26700000000005</v>
       </c>
       <c r="S19" s="1">
-        <v>-100.643000</v>
+        <v>-100.643</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>67551.421383</v>
+        <v>67551.421382999994</v>
       </c>
       <c r="V19" s="1">
         <v>18.764284</v>
       </c>
       <c r="W19" s="1">
-        <v>952.179000</v>
+        <v>952.17899999999997</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.233800</v>
+        <v>-88.233800000000002</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>67561.987694</v>
+        <v>67561.987693999996</v>
       </c>
       <c r="AA19" s="1">
-        <v>18.767219</v>
+        <v>18.767219000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.177000</v>
+        <v>960.17700000000002</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.744600</v>
+        <v>-79.744600000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>67572.477548</v>
+        <v>67572.477547999995</v>
       </c>
       <c r="AF19" s="1">
-        <v>18.770133</v>
+        <v>18.770133000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.598000</v>
+        <v>965.59799999999996</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.564900</v>
+        <v>-79.564899999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>67583.000681</v>
+        <v>67583.000681000005</v>
       </c>
       <c r="AK19" s="1">
         <v>18.773056</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.892000</v>
+        <v>973.89200000000005</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.391500</v>
+        <v>-87.391499999999994</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>67593.491071</v>
+        <v>67593.491070999997</v>
       </c>
       <c r="AP19" s="1">
-        <v>18.775970</v>
+        <v>18.775970000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.223000</v>
+        <v>983.22299999999996</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.216000</v>
+        <v>-102.21599999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>67604.503271</v>
+        <v>67604.503270999994</v>
       </c>
       <c r="AU19" s="1">
-        <v>18.779029</v>
+        <v>18.779029000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.682000</v>
+        <v>994.68200000000002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.556000</v>
+        <v>-123.556</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>67615.664212</v>
+        <v>67615.664212000003</v>
       </c>
       <c r="AZ19" s="1">
-        <v>18.782129</v>
+        <v>18.782129000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.350000</v>
+        <v>1004.35</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.178000</v>
+        <v>-142.178</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>67626.570255</v>
+        <v>67626.570254999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>18.785158</v>
+        <v>18.785157999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.720000</v>
+        <v>1049.72</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.324000</v>
+        <v>-226.32400000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>67637.554150</v>
+        <v>67637.554149999996</v>
       </c>
       <c r="BJ19" s="1">
-        <v>18.788209</v>
+        <v>18.788208999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1129.350000</v>
+        <v>1129.3499999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.823000</v>
+        <v>-360.82299999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>67648.412073</v>
       </c>
       <c r="BO19" s="1">
-        <v>18.791226</v>
+        <v>18.791226000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1260.650000</v>
+        <v>1260.6500000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-567.580000</v>
+        <v>-567.58000000000004</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>67658.966442</v>
+        <v>67658.966442000004</v>
       </c>
       <c r="BT19" s="1">
-        <v>18.794157</v>
+        <v>18.794156999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1407.640000</v>
+        <v>1407.64</v>
       </c>
       <c r="BV19" s="1">
-        <v>-787.908000</v>
+        <v>-787.90800000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>67669.833817</v>
+        <v>67669.833817000006</v>
       </c>
       <c r="BY19" s="1">
         <v>18.797176</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1567.550000</v>
+        <v>1567.55</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1016.940000</v>
+        <v>-1016.94</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>67682.522442</v>
+        <v>67682.522442000001</v>
       </c>
       <c r="CD19" s="1">
         <v>18.800701</v>
       </c>
       <c r="CE19" s="1">
-        <v>1970.160000</v>
+        <v>1970.16</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1551.060000</v>
+        <v>-1551.06</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>67510.125472</v>
       </c>
@@ -5107,1797 +5523,1798 @@
         <v>18.752813</v>
       </c>
       <c r="C20" s="1">
-        <v>901.854000</v>
+        <v>901.85400000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-183.333000</v>
+        <v>-183.333</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>67520.570720</v>
+        <v>67520.570720000003</v>
       </c>
       <c r="G20" s="1">
-        <v>18.755714</v>
+        <v>18.755714000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>917.227000</v>
+        <v>917.22699999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-156.495000</v>
+        <v>-156.495</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>67530.755607</v>
+        <v>67530.755606999999</v>
       </c>
       <c r="L20" s="1">
         <v>18.758543</v>
       </c>
       <c r="M20" s="1">
-        <v>938.545000</v>
+        <v>938.54499999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-114.323000</v>
+        <v>-114.32299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>67541.341687</v>
+        <v>67541.341686999993</v>
       </c>
       <c r="Q20" s="1">
-        <v>18.761484</v>
+        <v>18.761483999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>945.296000</v>
+        <v>945.29600000000005</v>
       </c>
       <c r="S20" s="1">
-        <v>-100.652000</v>
+        <v>-100.652</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>67551.800823</v>
+        <v>67551.800822999998</v>
       </c>
       <c r="V20" s="1">
-        <v>18.764389</v>
+        <v>18.764389000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>952.139000</v>
+        <v>952.13900000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.369100</v>
+        <v>-88.369100000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>67562.335851</v>
+        <v>67562.335850999996</v>
       </c>
       <c r="AA20" s="1">
-        <v>18.767316</v>
+        <v>18.767316000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.170000</v>
+        <v>960.17</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.750400</v>
+        <v>-79.750399999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>67572.819787</v>
       </c>
       <c r="AF20" s="1">
-        <v>18.770228</v>
+        <v>18.770227999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.559000</v>
+        <v>965.55899999999997</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.579200</v>
+        <v>-79.5792</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>67583.348367</v>
+        <v>67583.348366999999</v>
       </c>
       <c r="AK20" s="1">
         <v>18.773152</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.903000</v>
+        <v>973.90300000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.394000</v>
+        <v>-87.394000000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>67593.914641</v>
+        <v>67593.914640999996</v>
       </c>
       <c r="AP20" s="1">
         <v>18.776087</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.229000</v>
+        <v>983.22900000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.201000</v>
+        <v>-102.20099999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>67605.007170</v>
+        <v>67605.007169999997</v>
       </c>
       <c r="AU20" s="1">
         <v>18.779169</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.698000</v>
+        <v>994.69799999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.581000</v>
+        <v>-123.581</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>67615.966274</v>
+        <v>67615.966274000006</v>
       </c>
       <c r="AZ20" s="1">
-        <v>18.782213</v>
+        <v>18.782212999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.205000</v>
+        <v>-142.20500000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>67626.933346</v>
+        <v>67626.933346000005</v>
       </c>
       <c r="BE20" s="1">
         <v>18.785259</v>
       </c>
       <c r="BF20" s="1">
-        <v>1049.720000</v>
+        <v>1049.72</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.346000</v>
+        <v>-226.346</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>67637.954959</v>
+        <v>67637.954958999995</v>
       </c>
       <c r="BJ20" s="1">
         <v>18.788321</v>
       </c>
       <c r="BK20" s="1">
-        <v>1129.370000</v>
+        <v>1129.3699999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.779000</v>
+        <v>-360.779</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>67648.808873</v>
+        <v>67648.808873000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>18.791336</v>
+        <v>18.791336000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1260.680000</v>
+        <v>1260.68</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-567.598000</v>
+        <v>-567.59799999999996</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>67659.392537</v>
+        <v>67659.392537000007</v>
       </c>
       <c r="BT20" s="1">
         <v>18.794276</v>
       </c>
       <c r="BU20" s="1">
-        <v>1407.650000</v>
+        <v>1407.65</v>
       </c>
       <c r="BV20" s="1">
-        <v>-787.970000</v>
+        <v>-787.97</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>67670.258363</v>
+        <v>67670.258363000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>18.797294</v>
+        <v>18.797294000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1567.620000</v>
+        <v>1567.62</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1016.970000</v>
+        <v>-1016.97</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>67683.062117</v>
+        <v>67683.062116999994</v>
       </c>
       <c r="CD20" s="1">
-        <v>18.800851</v>
+        <v>18.800851000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1968.770000</v>
+        <v>1968.77</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1552.760000</v>
+        <v>-1552.76</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>67510.789613</v>
+        <v>67510.789613000001</v>
       </c>
       <c r="B21" s="1">
-        <v>18.752997</v>
+        <v>18.752997000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>901.730000</v>
+        <v>901.73</v>
       </c>
       <c r="D21" s="1">
-        <v>-183.379000</v>
+        <v>-183.37899999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>67520.938256</v>
+        <v>67520.938255999994</v>
       </c>
       <c r="G21" s="1">
-        <v>18.755816</v>
+        <v>18.755815999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>917.209000</v>
+        <v>917.20899999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-156.267000</v>
+        <v>-156.267</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>67531.127571</v>
+        <v>67531.127571000005</v>
       </c>
       <c r="L21" s="1">
         <v>18.758647</v>
       </c>
       <c r="M21" s="1">
-        <v>938.714000</v>
+        <v>938.71400000000006</v>
       </c>
       <c r="N21" s="1">
-        <v>-114.454000</v>
+        <v>-114.45399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>67541.695101</v>
+        <v>67541.695101000005</v>
       </c>
       <c r="Q21" s="1">
-        <v>18.761582</v>
+        <v>18.761582000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>945.261000</v>
+        <v>945.26099999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-100.698000</v>
+        <v>-100.69799999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>67552.146535</v>
+        <v>67552.146535000007</v>
       </c>
       <c r="V21" s="1">
-        <v>18.764485</v>
+        <v>18.764485000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>952.214000</v>
+        <v>952.21400000000006</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.149200</v>
+        <v>-88.149199999999993</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>67562.685529</v>
+        <v>67562.685528999995</v>
       </c>
       <c r="AA21" s="1">
-        <v>18.767413</v>
+        <v>18.767413000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.223000</v>
+        <v>960.22299999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.781600</v>
+        <v>-79.781599999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>67573.241395</v>
+        <v>67573.241395000005</v>
       </c>
       <c r="AF21" s="1">
-        <v>18.770345</v>
+        <v>18.770344999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.570000</v>
+        <v>965.57</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.592900</v>
+        <v>-79.5929</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>67583.765502</v>
+        <v>67583.765501999995</v>
       </c>
       <c r="AK21" s="1">
-        <v>18.773268</v>
+        <v>18.773268000000002</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.882000</v>
+        <v>973.88199999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.373800</v>
+        <v>-87.373800000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>67594.211284</v>
+        <v>67594.211284000005</v>
       </c>
       <c r="AP21" s="1">
-        <v>18.776170</v>
+        <v>18.77617</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.221000</v>
+        <v>983.221</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.211000</v>
+        <v>-102.211</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>67605.233862</v>
+        <v>67605.233861999994</v>
       </c>
       <c r="AU21" s="1">
         <v>18.779232</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.664000</v>
+        <v>994.66399999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.572000</v>
+        <v>-123.572</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>67616.325379</v>
+        <v>67616.325379000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>18.782313</v>
+        <v>18.782312999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.330000</v>
+        <v>1004.33</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.182000</v>
+        <v>-142.18199999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>67627.293940</v>
+        <v>67627.293940000003</v>
       </c>
       <c r="BE21" s="1">
         <v>18.785359</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.720000</v>
+        <v>1049.72</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.326000</v>
+        <v>-226.32599999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>67638.327909</v>
       </c>
       <c r="BJ21" s="1">
-        <v>18.788424</v>
+        <v>18.788423999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1129.330000</v>
+        <v>1129.33</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.823000</v>
+        <v>-360.82299999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>67649.230006</v>
+        <v>67649.230005999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>18.791453</v>
+        <v>18.791453000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1260.670000</v>
+        <v>1260.67</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-567.631000</v>
+        <v>-567.63099999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>67659.802234</v>
+        <v>67659.802234000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>18.794390</v>
+        <v>18.79439</v>
       </c>
       <c r="BU21" s="1">
-        <v>1407.530000</v>
+        <v>1407.53</v>
       </c>
       <c r="BV21" s="1">
-        <v>-788.052000</v>
+        <v>-788.05200000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>67670.694842</v>
+        <v>67670.694841999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>18.797415</v>
+        <v>18.797415000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1567.640000</v>
+        <v>1567.64</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1016.960000</v>
+        <v>-1016.96</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>67683.600745</v>
+        <v>67683.600745000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>18.801000</v>
+        <v>18.800999999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>1970.590000</v>
+        <v>1970.59</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1552.240000</v>
+        <v>-1552.24</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>67511.151693</v>
+        <v>67511.151693000007</v>
       </c>
       <c r="B22" s="1">
-        <v>18.753098</v>
+        <v>18.753098000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>901.834000</v>
+        <v>901.83399999999995</v>
       </c>
       <c r="D22" s="1">
-        <v>-183.556000</v>
+        <v>-183.55600000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>67521.283968</v>
+        <v>67521.283968000003</v>
       </c>
       <c r="G22" s="1">
-        <v>18.755912</v>
+        <v>18.755911999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>916.920000</v>
+        <v>916.92</v>
       </c>
       <c r="I22" s="1">
-        <v>-156.479000</v>
+        <v>-156.47900000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>67531.471794</v>
+        <v>67531.471793999997</v>
       </c>
       <c r="L22" s="1">
-        <v>18.758742</v>
+        <v>18.758742000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>938.621000</v>
+        <v>938.62099999999998</v>
       </c>
       <c r="N22" s="1">
-        <v>-114.429000</v>
+        <v>-114.429</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>67542.039062</v>
+        <v>67542.039061999996</v>
       </c>
       <c r="Q22" s="1">
         <v>18.761678</v>
       </c>
       <c r="R22" s="1">
-        <v>945.279000</v>
+        <v>945.279</v>
       </c>
       <c r="S22" s="1">
-        <v>-100.684000</v>
+        <v>-100.684</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>67552.499686</v>
+        <v>67552.499685999996</v>
       </c>
       <c r="V22" s="1">
-        <v>18.764583</v>
+        <v>18.764582999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>952.256000</v>
+        <v>952.25599999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.324300</v>
+        <v>-88.324299999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>67563.111624</v>
+        <v>67563.111623999997</v>
       </c>
       <c r="AA22" s="1">
-        <v>18.767531</v>
+        <v>18.767531000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.185000</v>
+        <v>960.18499999999995</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.742700</v>
+        <v>-79.742699999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>67573.508235</v>
+        <v>67573.508235000001</v>
       </c>
       <c r="AF22" s="1">
         <v>18.770419</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.597000</v>
+        <v>965.59699999999998</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.626800</v>
+        <v>-79.626800000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>67584.054174</v>
+        <v>67584.054174000004</v>
       </c>
       <c r="AK22" s="1">
-        <v>18.773348</v>
+        <v>18.773347999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.877000</v>
+        <v>973.87699999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.411900</v>
+        <v>-87.411900000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>67594.573860</v>
+        <v>67594.573860000004</v>
       </c>
       <c r="AP22" s="1">
-        <v>18.776271</v>
+        <v>18.776271000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.225000</v>
+        <v>983.22500000000002</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.215000</v>
+        <v>-102.215</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>67605.598897</v>
+        <v>67605.598897000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>18.779333</v>
+        <v>18.779333000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.675000</v>
+        <v>994.67499999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.571000</v>
+        <v>-123.571</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>67616.686467</v>
+        <v>67616.686467000007</v>
       </c>
       <c r="AZ22" s="1">
-        <v>18.782413</v>
+        <v>18.782412999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.190000</v>
+        <v>-142.19</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>67628.016114</v>
+        <v>67628.016113999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>18.785560</v>
+        <v>18.78556</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.720000</v>
+        <v>1049.72</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.331000</v>
+        <v>-226.33099999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>67639.075876</v>
+        <v>67639.075876000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>18.788632</v>
       </c>
       <c r="BK22" s="1">
-        <v>1129.320000</v>
+        <v>1129.32</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.795000</v>
+        <v>-360.79500000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>67649.626774</v>
+        <v>67649.626774000004</v>
       </c>
       <c r="BO22" s="1">
         <v>18.791563</v>
       </c>
       <c r="BP22" s="1">
-        <v>1260.680000</v>
+        <v>1260.68</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-567.626000</v>
+        <v>-567.62599999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>67660.232728</v>
+        <v>67660.232728000003</v>
       </c>
       <c r="BT22" s="1">
-        <v>18.794509</v>
+        <v>18.794509000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1407.410000</v>
+        <v>1407.41</v>
       </c>
       <c r="BV22" s="1">
-        <v>-788.174000</v>
+        <v>-788.17399999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>67671.117434</v>
       </c>
       <c r="BY22" s="1">
-        <v>18.797533</v>
+        <v>18.797533000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1567.770000</v>
+        <v>1567.77</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1016.880000</v>
+        <v>-1016.88</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>67684.452413</v>
+        <v>67684.452413000006</v>
       </c>
       <c r="CD22" s="1">
         <v>18.801237</v>
       </c>
       <c r="CE22" s="1">
-        <v>1969.210000</v>
+        <v>1969.21</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1552.750000</v>
+        <v>-1552.75</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>67511.492940</v>
+        <v>67511.492939999996</v>
       </c>
       <c r="B23" s="1">
-        <v>18.753192</v>
+        <v>18.753191999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>901.947000</v>
+        <v>901.947</v>
       </c>
       <c r="D23" s="1">
-        <v>-183.240000</v>
+        <v>-183.24</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>67521.630672</v>
+        <v>67521.630671999999</v>
       </c>
       <c r="G23" s="1">
-        <v>18.756009</v>
+        <v>18.756008999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>917.561000</v>
+        <v>917.56100000000004</v>
       </c>
       <c r="I23" s="1">
-        <v>-156.243000</v>
+        <v>-156.24299999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>67531.819987</v>
+        <v>67531.819986999995</v>
       </c>
       <c r="L23" s="1">
-        <v>18.758839</v>
+        <v>18.758838999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>938.550000</v>
+        <v>938.55</v>
       </c>
       <c r="N23" s="1">
-        <v>-114.487000</v>
+        <v>-114.48699999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>67542.469589</v>
       </c>
       <c r="Q23" s="1">
-        <v>18.761797</v>
+        <v>18.761797000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>945.262000</v>
+        <v>945.26199999999994</v>
       </c>
       <c r="S23" s="1">
-        <v>-100.665000</v>
+        <v>-100.66500000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>67552.920791</v>
+        <v>67552.920790999997</v>
       </c>
       <c r="V23" s="1">
-        <v>18.764700</v>
+        <v>18.764700000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>952.286000</v>
+        <v>952.28599999999994</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.281600</v>
+        <v>-88.281599999999997</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>67563.394313</v>
+        <v>67563.394312999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>18.767610</v>
+        <v>18.767610000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.181000</v>
+        <v>960.18100000000004</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.877200</v>
+        <v>-79.877200000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>67573.852490</v>
+        <v>67573.852490000005</v>
       </c>
       <c r="AF23" s="1">
         <v>18.770515</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.568000</v>
+        <v>965.56799999999998</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.595200</v>
+        <v>-79.595200000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>67584.403852</v>
+        <v>67584.403852000003</v>
       </c>
       <c r="AK23" s="1">
         <v>18.773446</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.867000</v>
+        <v>973.86699999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.395800</v>
+        <v>-87.395799999999994</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>67594.934446</v>
+        <v>67594.934445999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>18.776371</v>
+        <v>18.776371000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.220000</v>
+        <v>983.22</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.196000</v>
+        <v>-102.196</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>67606.324543</v>
+        <v>67606.324542999995</v>
       </c>
       <c r="AU23" s="1">
-        <v>18.779535</v>
+        <v>18.779534999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.676000</v>
+        <v>994.67600000000004</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.570000</v>
+        <v>-123.57</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>67617.402689</v>
+        <v>67617.402688999995</v>
       </c>
       <c r="AZ23" s="1">
         <v>18.782612</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.160000</v>
+        <v>-142.16</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>67628.375221</v>
+        <v>67628.375220999995</v>
       </c>
       <c r="BE23" s="1">
-        <v>18.785660</v>
+        <v>18.78566</v>
       </c>
       <c r="BF23" s="1">
-        <v>1049.720000</v>
+        <v>1049.72</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.325000</v>
+        <v>-226.32499999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>67639.452340</v>
+        <v>67639.452340000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>18.788737</v>
+        <v>18.788737000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1129.400000</v>
+        <v>1129.4000000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.867000</v>
+        <v>-360.86700000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>67650.050889</v>
+        <v>67650.050889000006</v>
       </c>
       <c r="BO23" s="1">
-        <v>18.791681</v>
+        <v>18.791681000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1260.690000</v>
+        <v>1260.69</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-567.631000</v>
+        <v>-567.63099999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>67660.971768</v>
+        <v>67660.971768000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>18.794714</v>
+        <v>18.794713999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1407.290000</v>
+        <v>1407.29</v>
       </c>
       <c r="BV23" s="1">
-        <v>-788.086000</v>
+        <v>-788.08600000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>67671.846591</v>
+        <v>67671.846590999994</v>
       </c>
       <c r="BY23" s="1">
-        <v>18.797735</v>
+        <v>18.797734999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1567.650000</v>
+        <v>1567.65</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1017.010000</v>
+        <v>-1017.01</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>67684.684007</v>
+        <v>67684.684007000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>18.801301</v>
+        <v>18.801300999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1969.120000</v>
+        <v>1969.12</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1552.910000</v>
+        <v>-1552.91</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>67511.836174</v>
+        <v>67511.836173999996</v>
       </c>
       <c r="B24" s="1">
-        <v>18.753288</v>
+        <v>18.753288000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>901.902000</v>
+        <v>901.90200000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-183.354000</v>
+        <v>-183.35400000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>67522.052766</v>
+        <v>67522.052765999993</v>
       </c>
       <c r="G24" s="1">
-        <v>18.756126</v>
+        <v>18.756125999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>917.332000</v>
+        <v>917.33199999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-156.744000</v>
+        <v>-156.744</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>67532.240593</v>
+        <v>67532.240592999995</v>
       </c>
       <c r="L24" s="1">
-        <v>18.758956</v>
+        <v>18.758956000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>938.551000</v>
+        <v>938.55100000000004</v>
       </c>
       <c r="N24" s="1">
-        <v>-114.451000</v>
+        <v>-114.45099999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>67542.750855</v>
+        <v>67542.750855000006</v>
       </c>
       <c r="Q24" s="1">
         <v>18.761875</v>
       </c>
       <c r="R24" s="1">
-        <v>945.257000</v>
+        <v>945.25699999999995</v>
       </c>
       <c r="S24" s="1">
-        <v>-100.670000</v>
+        <v>-100.67</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>67553.199582</v>
+        <v>67553.199582000001</v>
       </c>
       <c r="V24" s="1">
         <v>18.764778</v>
       </c>
       <c r="W24" s="1">
-        <v>952.180000</v>
+        <v>952.18</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.366100</v>
+        <v>-88.366100000000003</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>67563.742536</v>
+        <v>67563.742536000005</v>
       </c>
       <c r="AA24" s="1">
         <v>18.767706</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.179000</v>
+        <v>960.17899999999997</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.784200</v>
+        <v>-79.784199999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>67574.197179</v>
+        <v>67574.197178999995</v>
       </c>
       <c r="AF24" s="1">
-        <v>18.770610</v>
+        <v>18.770610000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.580000</v>
+        <v>965.58</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.599300</v>
+        <v>-79.599299999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>67584.754027</v>
+        <v>67584.754027000003</v>
       </c>
       <c r="AK24" s="1">
         <v>18.773543</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.865000</v>
+        <v>973.86500000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.391900</v>
+        <v>-87.391900000000007</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>67595.661584</v>
+        <v>67595.661584000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>18.776573</v>
+        <v>18.776572999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.236000</v>
+        <v>983.23599999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.197000</v>
+        <v>-102.197</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>67606.721852</v>
+        <v>67606.721852000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>18.779645</v>
+        <v>18.779644999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.673000</v>
+        <v>994.673</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.566000</v>
+        <v>-123.566</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>67617.757329</v>
       </c>
       <c r="AZ24" s="1">
-        <v>18.782710</v>
+        <v>18.782710000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.360000</v>
+        <v>1004.36</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.171000</v>
+        <v>-142.17099999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>67628.737408</v>
+        <v>67628.737408000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>18.785760</v>
+        <v>18.78576</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.720000</v>
+        <v>1049.72</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.324000</v>
+        <v>-226.32400000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>67640.139335</v>
       </c>
       <c r="BJ24" s="1">
-        <v>18.788928</v>
+        <v>18.788927999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1129.370000</v>
+        <v>1129.3699999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.842000</v>
+        <v>-360.84199999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>67650.757653</v>
+        <v>67650.757652999993</v>
       </c>
       <c r="BO24" s="1">
-        <v>18.791877</v>
+        <v>18.791876999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1260.680000</v>
+        <v>1260.68</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-567.600000</v>
+        <v>-567.6</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>67661.106679</v>
+        <v>67661.106679000004</v>
       </c>
       <c r="BT24" s="1">
-        <v>18.794752</v>
+        <v>18.794751999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1407.130000</v>
+        <v>1407.13</v>
       </c>
       <c r="BV24" s="1">
-        <v>-788.113000</v>
+        <v>-788.11300000000006</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>67672.023624</v>
+        <v>67672.023623999994</v>
       </c>
       <c r="BY24" s="1">
         <v>18.797784</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1567.600000</v>
+        <v>1567.6</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1016.870000</v>
+        <v>-1016.87</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>67685.202328</v>
+        <v>67685.202327999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>18.801445</v>
+        <v>18.801445000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1970.800000</v>
+        <v>1970.8</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1552.670000</v>
+        <v>-1552.67</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>67512.263259</v>
+        <v>67512.263258999999</v>
       </c>
       <c r="B25" s="1">
-        <v>18.753406</v>
+        <v>18.753405999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>901.889000</v>
+        <v>901.88900000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-183.480000</v>
+        <v>-183.48</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>67522.331023</v>
+        <v>67522.331023000006</v>
       </c>
       <c r="G25" s="1">
-        <v>18.756203</v>
+        <v>18.756202999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>917.297000</v>
+        <v>917.29700000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>-156.406000</v>
+        <v>-156.40600000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>67532.523313</v>
+        <v>67532.523312999998</v>
       </c>
       <c r="L25" s="1">
         <v>18.759034</v>
       </c>
       <c r="M25" s="1">
-        <v>938.555000</v>
+        <v>938.55499999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-114.459000</v>
+        <v>-114.459</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>67543.099508</v>
+        <v>67543.099507999999</v>
       </c>
       <c r="Q25" s="1">
         <v>18.761972</v>
       </c>
       <c r="R25" s="1">
-        <v>945.275000</v>
+        <v>945.27499999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-100.676000</v>
+        <v>-100.676</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>67553.545750</v>
+        <v>67553.545750000005</v>
       </c>
       <c r="V25" s="1">
-        <v>18.764874</v>
+        <v>18.764873999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>952.178000</v>
+        <v>952.178</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.282800</v>
+        <v>-88.282799999999995</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>67564.086231</v>
+        <v>67564.086230999994</v>
       </c>
       <c r="AA25" s="1">
         <v>18.767802</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.169000</v>
+        <v>960.16899999999998</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.719100</v>
+        <v>-79.719099999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>67574.882650</v>
+        <v>67574.88265</v>
       </c>
       <c r="AF25" s="1">
-        <v>18.770801</v>
+        <v>18.770800999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.562000</v>
+        <v>965.56200000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.615600</v>
+        <v>-79.615600000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>67585.445948</v>
+        <v>67585.445947999993</v>
       </c>
       <c r="AK25" s="1">
-        <v>18.773735</v>
+        <v>18.773734999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.905000</v>
+        <v>973.90499999999997</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.393300</v>
+        <v>-87.393299999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>67596.038510</v>
+        <v>67596.038509999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>18.776677</v>
+        <v>18.776676999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.216000</v>
+        <v>983.21600000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.185000</v>
+        <v>-102.185</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>67607.084926</v>
+        <v>67607.084925999996</v>
       </c>
       <c r="AU25" s="1">
-        <v>18.779746</v>
+        <v>18.779745999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.690000</v>
+        <v>994.69</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.601000</v>
+        <v>-123.601</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>67618.115439</v>
+        <v>67618.115439000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>18.782810</v>
+        <v>18.782810000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.179000</v>
+        <v>-142.179</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>67629.414305</v>
+        <v>67629.414304999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>18.785948</v>
+        <v>18.785948000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1049.700000</v>
+        <v>1049.7</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.333000</v>
+        <v>-226.333</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>67640.610498</v>
+        <v>67640.610497999995</v>
       </c>
       <c r="BJ25" s="1">
-        <v>18.789058</v>
+        <v>18.789058000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1129.330000</v>
+        <v>1129.33</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.841000</v>
+        <v>-360.84100000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>67650.866774</v>
+        <v>67650.866773999995</v>
       </c>
       <c r="BO25" s="1">
-        <v>18.791907</v>
+        <v>18.791906999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1260.680000</v>
+        <v>1260.68</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-567.623000</v>
+        <v>-567.62300000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>67661.518358</v>
+        <v>67661.518358000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>18.794866</v>
+        <v>18.794865999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1407.040000</v>
+        <v>1407.04</v>
       </c>
       <c r="BV25" s="1">
-        <v>-788.028000</v>
+        <v>-788.02800000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>67672.445720</v>
+        <v>67672.445720000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>18.797902</v>
+        <v>18.797902000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1567.740000</v>
+        <v>1567.74</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1016.960000</v>
+        <v>-1016.96</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>67685.721175</v>
+        <v>67685.721174999999</v>
       </c>
       <c r="CD25" s="1">
         <v>18.801589</v>
       </c>
       <c r="CE25" s="1">
-        <v>1969.870000</v>
+        <v>1969.87</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1553.190000</v>
+        <v>-1553.19</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>67512.534571</v>
+        <v>67512.534570999997</v>
       </c>
       <c r="B26" s="1">
-        <v>18.753482</v>
+        <v>18.753482000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>901.825000</v>
+        <v>901.82500000000005</v>
       </c>
       <c r="D26" s="1">
-        <v>-183.454000</v>
+        <v>-183.45400000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>67522.676238</v>
       </c>
       <c r="G26" s="1">
-        <v>18.756299</v>
+        <v>18.756298999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>917.192000</v>
+        <v>917.19200000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-156.660000</v>
+        <v>-156.66</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>67532.866575</v>
+        <v>67532.866574999993</v>
       </c>
       <c r="L26" s="1">
-        <v>18.759130</v>
+        <v>18.759129999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>938.376000</v>
+        <v>938.37599999999998</v>
       </c>
       <c r="N26" s="1">
-        <v>-114.437000</v>
+        <v>-114.437</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>67543.450706</v>
+        <v>67543.450706000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>18.762070</v>
+        <v>18.762070000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>945.302000</v>
+        <v>945.30200000000002</v>
       </c>
       <c r="S26" s="1">
-        <v>-100.682000</v>
+        <v>-100.682</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>67554.169753</v>
+        <v>67554.169752999995</v>
       </c>
       <c r="V26" s="1">
-        <v>18.765047</v>
+        <v>18.765046999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>952.216000</v>
+        <v>952.21600000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.283200</v>
+        <v>-88.283199999999994</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>67564.787106</v>
+        <v>67564.787106000003</v>
       </c>
       <c r="AA26" s="1">
         <v>18.767996</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.124000</v>
+        <v>960.12400000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.749400</v>
+        <v>-79.749399999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>67575.226872</v>
+        <v>67575.226871999999</v>
       </c>
       <c r="AF26" s="1">
         <v>18.770896</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.587000</v>
+        <v>965.58699999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.583700</v>
+        <v>-79.583699999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>67585.797642</v>
+        <v>67585.797642000005</v>
       </c>
       <c r="AK26" s="1">
         <v>18.773833</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.866000</v>
+        <v>973.86599999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.391300</v>
+        <v>-87.391300000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>67596.398637</v>
+        <v>67596.398637000006</v>
       </c>
       <c r="AP26" s="1">
-        <v>18.776777</v>
+        <v>18.776776999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.229000</v>
+        <v>983.22900000000004</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.206000</v>
+        <v>-102.206</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>67607.756503</v>
+        <v>67607.756502999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>18.779932</v>
+        <v>18.779931999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.692000</v>
+        <v>994.69200000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.558000</v>
+        <v>-123.55800000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>67618.788163</v>
+        <v>67618.788163000005</v>
       </c>
       <c r="AZ26" s="1">
-        <v>18.782997</v>
+        <v>18.782997000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.340000</v>
+        <v>1004.34</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.184000</v>
+        <v>-142.184</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>67629.846817</v>
+        <v>67629.846816999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>18.786069</v>
+        <v>18.786069000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.710000</v>
+        <v>1049.71</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.345000</v>
+        <v>-226.345</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>67640.987490</v>
+        <v>67640.98749</v>
       </c>
       <c r="BJ26" s="1">
-        <v>18.789163</v>
+        <v>18.789162999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1129.380000</v>
+        <v>1129.3800000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.762000</v>
+        <v>-360.762</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>67651.289364</v>
+        <v>67651.289363999997</v>
       </c>
       <c r="BO26" s="1">
-        <v>18.792025</v>
+        <v>18.792024999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1260.660000</v>
+        <v>1260.6600000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-567.616000</v>
+        <v>-567.61599999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>67661.944949</v>
+        <v>67661.944948999997</v>
       </c>
       <c r="BT26" s="1">
         <v>18.794985</v>
       </c>
       <c r="BU26" s="1">
-        <v>1407.060000</v>
+        <v>1407.06</v>
       </c>
       <c r="BV26" s="1">
-        <v>-787.831000</v>
+        <v>-787.83100000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>67672.893640</v>
+        <v>67672.893639999995</v>
       </c>
       <c r="BY26" s="1">
         <v>18.798026</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1567.590000</v>
+        <v>1567.59</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1016.950000</v>
+        <v>-1016.95</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>67686.273687</v>
+        <v>67686.273686999994</v>
       </c>
       <c r="CD26" s="1">
-        <v>18.801743</v>
+        <v>18.801742999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>1968.990000</v>
+        <v>1968.99</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1552.650000</v>
+        <v>-1552.65</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>